--- a/Not OOP/Расчётная по ТВиМС/Типовой расчет(Гринчик 751003).xlsx
+++ b/Not OOP/Расчётная по ТВиМС/Типовой расчет(Гринчик 751003).xlsx
@@ -885,75 +885,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,9 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,21 +941,84 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1086,6 +1086,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1216,11 +1217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149538688"/>
-        <c:axId val="171413504"/>
+        <c:axId val="95669248"/>
+        <c:axId val="157271168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149538688"/>
+        <c:axId val="95669248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1264,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171413504"/>
+        <c:crossAx val="157271168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1271,7 +1272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171413504"/>
+        <c:axId val="157271168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1323,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149538688"/>
+        <c:crossAx val="95669248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1412,6 +1413,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1532,11 +1534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="174313472"/>
-        <c:axId val="174315392"/>
+        <c:axId val="158528640"/>
+        <c:axId val="158530560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174313472"/>
+        <c:axId val="158528640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1581,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174315392"/>
+        <c:crossAx val="158530560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1587,7 +1589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174315392"/>
+        <c:axId val="158530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1640,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174313472"/>
+        <c:crossAx val="158528640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2292,11 +2294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173483520"/>
-        <c:axId val="173485440"/>
+        <c:axId val="158411392"/>
+        <c:axId val="158413568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173483520"/>
+        <c:axId val="158411392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -2354,13 +2356,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173485440"/>
+        <c:crossAx val="158413568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173485440"/>
+        <c:axId val="158413568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -2419,7 +2421,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173483520"/>
+        <c:crossAx val="158411392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3099,11 +3101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173767296"/>
-        <c:axId val="173781760"/>
+        <c:axId val="158781440"/>
+        <c:axId val="158783360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173767296"/>
+        <c:axId val="158781440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -3161,13 +3163,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173781760"/>
+        <c:crossAx val="158783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173781760"/>
+        <c:axId val="158783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -3226,7 +3228,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173767296"/>
+        <c:crossAx val="158781440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3310,6 +3312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3425,11 +3428,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181594368"/>
-        <c:axId val="181596160"/>
+        <c:axId val="159117312"/>
+        <c:axId val="159118848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181594368"/>
+        <c:axId val="159117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3475,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181596160"/>
+        <c:crossAx val="159118848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181596160"/>
+        <c:axId val="159118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3534,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181594368"/>
+        <c:crossAx val="159117312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,11 +3757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92159360"/>
-        <c:axId val="92177920"/>
+        <c:axId val="159150080"/>
+        <c:axId val="159152000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92159360"/>
+        <c:axId val="159150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3840,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92177920"/>
+        <c:crossAx val="159152000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,7 +3848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92177920"/>
+        <c:axId val="159152000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3934,7 +3937,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92159360"/>
+        <c:crossAx val="159150080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,11 +4164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192063360"/>
-        <c:axId val="192242048"/>
+        <c:axId val="159197056"/>
+        <c:axId val="159199616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192063360"/>
+        <c:axId val="159197056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4200,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4244,7 +4246,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192242048"/>
+        <c:crossAx val="159199616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192242048"/>
+        <c:axId val="159199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4300,7 +4302,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4341,7 +4342,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192063360"/>
+        <c:crossAx val="159197056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10206,8 +10207,8 @@
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2741456" cy="1535430"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -10657,7 +10658,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -11020,8 +11021,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="435632" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -11115,7 +11116,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -11192,8 +11193,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549381" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -11298,7 +11299,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -11399,8 +11400,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111248" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -11469,7 +11470,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -11534,8 +11535,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="118109" cy="179601"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -11604,7 +11605,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -11669,8 +11670,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179152" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -11746,7 +11747,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -11817,8 +11818,8 @@
       <xdr:rowOff>84908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151067" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -11894,7 +11895,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -12029,8 +12030,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="220701" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -12112,7 +12113,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -12287,8 +12288,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="189091" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -12364,7 +12365,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -12435,8 +12436,8 @@
       <xdr:rowOff>157331</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="130933" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -12512,7 +12513,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -12583,8 +12584,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="185051" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -12660,7 +12661,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -12731,8 +12732,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="185051" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -12808,7 +12809,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -12879,8 +12880,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="185051" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -12956,7 +12957,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -13027,8 +13028,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="185051" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -13104,7 +13105,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -13185,7 +13186,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13272,7 +13273,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13590,7 +13591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13600,8 +13601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:DP1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13989,17 +13990,17 @@
     </row>
     <row r="3" spans="1:120" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:120" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -14069,17 +14070,17 @@
     </row>
     <row r="7" spans="1:120" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:120" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -14148,51 +14149,51 @@
       </c>
     </row>
     <row r="13" spans="1:120" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
     </row>
     <row r="32" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
@@ -14396,10 +14397,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="65"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -14582,12 +14583,12 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
@@ -14782,6 +14783,10 @@
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f>SUM(D86:D93)</f>
+        <v>0.94599778912102161</v>
+      </c>
       <c r="I94" s="4">
         <v>5</v>
       </c>
@@ -14804,11 +14809,11 @@
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
       <c r="I97" s="4">
         <v>6</v>
       </c>
@@ -14820,11 +14825,11 @@
       <c r="B98" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="55">
         <f>SUMPRODUCT(POWER(C86:C93-E86:E93,2), 1/E86:E93)</f>
         <v>44.483813976829872</v>
       </c>
-      <c r="D98" s="36"/>
+      <c r="D98" s="57"/>
       <c r="I98" s="4">
         <f>I95+D91</f>
         <v>0.8114484794590815</v>
@@ -14838,11 +14843,11 @@
       <c r="B99" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="34">
+      <c r="C99" s="55">
         <f>CHIINV(0.05, COUNTA(B5:I5) -C100 - 1)</f>
         <v>12.591587243743978</v>
       </c>
-      <c r="D99" s="36"/>
+      <c r="D99" s="57"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
@@ -14850,10 +14855,10 @@
       <c r="B100" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="54">
         <v>1</v>
       </c>
-      <c r="D100" s="33"/>
+      <c r="D100" s="54"/>
       <c r="I100" s="4">
         <v>7</v>
       </c>
@@ -14862,11 +14867,11 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="57"/>
       <c r="I101" s="4">
         <f>I98+D92</f>
         <v>0.89707076742577063</v>
@@ -14881,11 +14886,11 @@
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
       <c r="I103" s="4">
         <v>8</v>
       </c>
@@ -14897,11 +14902,11 @@
       <c r="B104" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="52">
         <f>ABS(C98-6)/SQRT(2*6)</f>
         <v>11.109320179483104</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="53"/>
       <c r="I104" s="4">
         <f>I101+D93</f>
         <v>0.94599778912102161</v>
@@ -14920,6 +14925,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B103:D103"/>
@@ -14928,11 +14938,6 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:S13"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14944,8 +14949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP143"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15322,381 +15327,381 @@
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="51">
         <v>-6</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="51">
         <v>-5</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="51">
         <v>-5</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="51">
         <v>-4</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="51">
         <v>-4</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="51">
         <v>-3</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="51">
         <v>-3</v>
       </c>
-      <c r="I2" s="76">
+      <c r="I2" s="51">
         <v>-3</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="51">
         <v>-3</v>
       </c>
-      <c r="K2" s="76">
+      <c r="K2" s="51">
         <v>-2</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="51">
         <v>-2</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="51">
         <v>-1</v>
       </c>
-      <c r="N2" s="76">
+      <c r="N2" s="51">
         <v>-1</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="51">
         <v>0</v>
       </c>
-      <c r="P2" s="76">
+      <c r="P2" s="51">
         <v>0</v>
       </c>
-      <c r="Q2" s="76">
+      <c r="Q2" s="51">
         <v>0</v>
       </c>
-      <c r="R2" s="76">
+      <c r="R2" s="51">
         <v>0</v>
       </c>
-      <c r="S2" s="76">
+      <c r="S2" s="51">
         <v>1</v>
       </c>
-      <c r="T2" s="76">
+      <c r="T2" s="51">
         <v>1</v>
       </c>
-      <c r="U2" s="76">
+      <c r="U2" s="51">
         <v>1</v>
       </c>
-      <c r="V2" s="76">
+      <c r="V2" s="51">
         <v>1</v>
       </c>
-      <c r="W2" s="76">
+      <c r="W2" s="51">
         <v>1</v>
       </c>
-      <c r="X2" s="76">
+      <c r="X2" s="51">
         <v>1</v>
       </c>
-      <c r="Y2" s="76">
+      <c r="Y2" s="51">
         <v>1</v>
       </c>
-      <c r="Z2" s="76">
+      <c r="Z2" s="51">
         <v>1</v>
       </c>
-      <c r="AA2" s="76">
+      <c r="AA2" s="51">
         <v>1</v>
       </c>
-      <c r="AB2" s="76">
+      <c r="AB2" s="51">
         <v>2</v>
       </c>
-      <c r="AC2" s="76">
+      <c r="AC2" s="51">
         <v>2</v>
       </c>
-      <c r="AD2" s="76">
+      <c r="AD2" s="51">
         <v>2</v>
       </c>
-      <c r="AE2" s="76">
+      <c r="AE2" s="51">
         <v>2</v>
       </c>
-      <c r="AF2" s="76">
+      <c r="AF2" s="51">
         <v>2</v>
       </c>
-      <c r="AG2" s="76">
+      <c r="AG2" s="51">
         <v>2</v>
       </c>
-      <c r="AH2" s="76">
+      <c r="AH2" s="51">
         <v>2</v>
       </c>
-      <c r="AI2" s="76">
+      <c r="AI2" s="51">
         <v>2</v>
       </c>
-      <c r="AJ2" s="76">
+      <c r="AJ2" s="51">
         <v>2</v>
       </c>
-      <c r="AK2" s="76">
+      <c r="AK2" s="51">
         <v>2</v>
       </c>
-      <c r="AL2" s="76">
+      <c r="AL2" s="51">
         <v>2</v>
       </c>
-      <c r="AM2" s="76">
+      <c r="AM2" s="51">
         <v>2</v>
       </c>
-      <c r="AN2" s="76">
+      <c r="AN2" s="51">
         <v>3</v>
       </c>
-      <c r="AO2" s="76">
+      <c r="AO2" s="51">
         <v>3</v>
       </c>
-      <c r="AP2" s="76">
+      <c r="AP2" s="51">
         <v>3</v>
       </c>
-      <c r="AQ2" s="76">
+      <c r="AQ2" s="51">
         <v>3</v>
       </c>
-      <c r="AR2" s="76">
+      <c r="AR2" s="51">
         <v>3</v>
       </c>
-      <c r="AS2" s="76">
+      <c r="AS2" s="51">
         <v>4</v>
       </c>
-      <c r="AT2" s="76">
+      <c r="AT2" s="51">
         <v>4</v>
       </c>
-      <c r="AU2" s="76">
+      <c r="AU2" s="51">
         <v>4</v>
       </c>
-      <c r="AV2" s="76">
+      <c r="AV2" s="51">
         <v>4</v>
       </c>
-      <c r="AW2" s="76">
+      <c r="AW2" s="51">
         <v>5</v>
       </c>
-      <c r="AX2" s="76">
+      <c r="AX2" s="51">
         <v>5</v>
       </c>
-      <c r="AY2" s="76">
+      <c r="AY2" s="51">
         <v>5</v>
       </c>
-      <c r="AZ2" s="76">
+      <c r="AZ2" s="51">
         <v>5</v>
       </c>
-      <c r="BA2" s="76">
+      <c r="BA2" s="51">
         <v>5</v>
       </c>
-      <c r="BB2" s="76">
+      <c r="BB2" s="51">
         <v>6</v>
       </c>
-      <c r="BC2" s="76">
+      <c r="BC2" s="51">
         <v>6</v>
       </c>
-      <c r="BD2" s="76">
+      <c r="BD2" s="51">
         <v>6</v>
       </c>
-      <c r="BE2" s="76">
+      <c r="BE2" s="51">
         <v>6</v>
       </c>
-      <c r="BF2" s="76">
+      <c r="BF2" s="51">
         <v>6</v>
       </c>
-      <c r="BG2" s="76">
+      <c r="BG2" s="51">
         <v>6</v>
       </c>
-      <c r="BH2" s="76">
+      <c r="BH2" s="51">
         <v>6</v>
       </c>
-      <c r="BI2" s="76">
+      <c r="BI2" s="51">
         <v>6</v>
       </c>
-      <c r="BJ2" s="76">
+      <c r="BJ2" s="51">
         <v>7</v>
       </c>
-      <c r="BK2" s="76">
+      <c r="BK2" s="51">
         <v>7</v>
       </c>
-      <c r="BL2" s="76">
+      <c r="BL2" s="51">
         <v>7</v>
       </c>
-      <c r="BM2" s="76">
+      <c r="BM2" s="51">
         <v>8</v>
       </c>
-      <c r="BN2" s="76">
+      <c r="BN2" s="51">
         <v>8</v>
       </c>
-      <c r="BO2" s="76">
+      <c r="BO2" s="51">
         <v>8</v>
       </c>
-      <c r="BP2" s="76">
+      <c r="BP2" s="51">
         <v>8</v>
       </c>
-      <c r="BQ2" s="76">
+      <c r="BQ2" s="51">
         <v>8</v>
       </c>
-      <c r="BR2" s="76">
+      <c r="BR2" s="51">
         <v>9</v>
       </c>
-      <c r="BS2" s="76">
+      <c r="BS2" s="51">
         <v>9</v>
       </c>
-      <c r="BT2" s="76">
+      <c r="BT2" s="51">
         <v>10</v>
       </c>
-      <c r="BU2" s="76">
+      <c r="BU2" s="51">
         <v>10</v>
       </c>
-      <c r="BV2" s="76">
+      <c r="BV2" s="51">
         <v>10</v>
       </c>
-      <c r="BW2" s="76">
+      <c r="BW2" s="51">
         <v>11</v>
       </c>
-      <c r="BX2" s="76">
+      <c r="BX2" s="51">
         <v>11</v>
       </c>
-      <c r="BY2" s="76">
+      <c r="BY2" s="51">
         <v>12</v>
       </c>
-      <c r="BZ2" s="76">
+      <c r="BZ2" s="51">
         <v>12</v>
       </c>
-      <c r="CA2" s="76">
+      <c r="CA2" s="51">
         <v>12</v>
       </c>
-      <c r="CB2" s="76">
+      <c r="CB2" s="51">
         <v>13</v>
       </c>
-      <c r="CC2" s="76">
+      <c r="CC2" s="51">
         <v>13</v>
       </c>
-      <c r="CD2" s="76">
+      <c r="CD2" s="51">
         <v>13</v>
       </c>
-      <c r="CE2" s="76">
+      <c r="CE2" s="51">
         <v>14</v>
       </c>
-      <c r="CF2" s="76">
+      <c r="CF2" s="51">
         <v>14</v>
       </c>
-      <c r="CG2" s="76">
+      <c r="CG2" s="51">
         <v>14</v>
       </c>
-      <c r="CH2" s="76">
+      <c r="CH2" s="51">
         <v>15</v>
       </c>
-      <c r="CI2" s="76">
+      <c r="CI2" s="51">
         <v>15</v>
       </c>
-      <c r="CJ2" s="76">
+      <c r="CJ2" s="51">
         <v>15</v>
       </c>
-      <c r="CK2" s="76">
+      <c r="CK2" s="51">
         <v>15</v>
       </c>
-      <c r="CL2" s="76">
+      <c r="CL2" s="51">
         <v>15</v>
       </c>
-      <c r="CM2" s="76">
+      <c r="CM2" s="51">
         <v>16</v>
       </c>
-      <c r="CN2" s="76">
+      <c r="CN2" s="51">
         <v>16</v>
       </c>
-      <c r="CO2" s="76">
+      <c r="CO2" s="51">
         <v>16</v>
       </c>
-      <c r="CP2" s="76">
+      <c r="CP2" s="51">
         <v>17</v>
       </c>
-      <c r="CQ2" s="76">
+      <c r="CQ2" s="51">
         <v>17</v>
       </c>
-      <c r="CR2" s="76">
+      <c r="CR2" s="51">
         <v>17</v>
       </c>
-      <c r="CS2" s="76">
+      <c r="CS2" s="51">
         <v>17</v>
       </c>
-      <c r="CT2" s="76">
+      <c r="CT2" s="51">
         <v>18</v>
       </c>
-      <c r="CU2" s="76">
+      <c r="CU2" s="51">
         <v>18</v>
       </c>
-      <c r="CV2" s="76">
+      <c r="CV2" s="51">
         <v>18</v>
       </c>
-      <c r="CW2" s="76">
+      <c r="CW2" s="51">
         <v>20</v>
       </c>
-      <c r="CX2" s="76">
+      <c r="CX2" s="51">
         <v>20</v>
       </c>
-      <c r="CY2" s="76">
+      <c r="CY2" s="51">
         <v>20</v>
       </c>
-      <c r="CZ2" s="76">
+      <c r="CZ2" s="51">
         <v>20</v>
       </c>
-      <c r="DA2" s="76">
+      <c r="DA2" s="51">
         <v>21</v>
       </c>
-      <c r="DB2" s="76">
+      <c r="DB2" s="51">
         <v>21</v>
       </c>
-      <c r="DC2" s="76">
+      <c r="DC2" s="51">
         <v>22</v>
       </c>
-      <c r="DD2" s="76">
+      <c r="DD2" s="51">
         <v>22</v>
       </c>
-      <c r="DE2" s="76">
+      <c r="DE2" s="51">
         <v>22</v>
       </c>
-      <c r="DF2" s="76">
+      <c r="DF2" s="51">
         <v>23</v>
       </c>
-      <c r="DG2" s="76">
+      <c r="DG2" s="51">
         <v>23</v>
       </c>
-      <c r="DH2" s="76">
+      <c r="DH2" s="51">
         <v>23</v>
       </c>
-      <c r="DI2" s="76">
+      <c r="DI2" s="51">
         <v>23</v>
       </c>
-      <c r="DJ2" s="76">
+      <c r="DJ2" s="51">
         <v>24</v>
       </c>
-      <c r="DK2" s="76">
+      <c r="DK2" s="51">
         <v>24</v>
       </c>
-      <c r="DL2" s="76">
+      <c r="DL2" s="51">
         <v>24</v>
       </c>
-      <c r="DM2" s="76">
+      <c r="DM2" s="51">
         <v>25</v>
       </c>
-      <c r="DN2" s="76">
+      <c r="DN2" s="51">
         <v>25</v>
       </c>
-      <c r="DO2" s="76">
+      <c r="DO2" s="51">
         <v>25</v>
       </c>
-      <c r="DP2" s="76">
+      <c r="DP2" s="51">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="50">
         <f>COUNTA(B1:DP1)</f>
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -15754,285 +15759,285 @@
     </row>
     <row r="13" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:120" ht="36" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="63">
+      <c r="B17" s="43">
         <v>1</v>
       </c>
-      <c r="C17" s="59" t="str">
-        <f>"[" &amp; ROUND(H17,2) &amp; "; " &amp; ROUND(H18, 2) &amp; ")"</f>
+      <c r="C17" s="39" t="str">
+        <f t="shared" ref="C17:C24" si="0">"[" &amp; ROUND(H17,2) &amp; "; " &amp; ROUND(H18, 2) &amp; ")"</f>
         <v>[-6; -1,95)</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="40">
         <f>COUNTIF($D$1:$DP$1,"&gt;="&amp;H17)-COUNTIF($D$1:$DP$1,"&gt;="&amp;H18)</f>
         <v>11</v>
       </c>
-      <c r="E17" s="59">
-        <f>D17/$B$8</f>
+      <c r="E17" s="39">
+        <f t="shared" ref="E17:E25" si="1">D17/$B$8</f>
         <v>9.2436974789915971E-2</v>
       </c>
-      <c r="F17" s="58">
-        <f>AVERAGE(H17,H18)</f>
+      <c r="F17" s="38">
+        <f t="shared" ref="F17:F23" si="2">AVERAGE(H17,H18)</f>
         <v>-3.9733924171747472</v>
       </c>
-      <c r="G17" s="57">
-        <f>E17/$B$9</f>
+      <c r="G17" s="37">
+        <f t="shared" ref="G17:G24" si="3">E17/$B$9</f>
         <v>2.2805839564917506E-2</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="42">
         <f>$B$7</f>
         <v>-6</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="61">
+      <c r="B18" s="41">
         <v>2</v>
       </c>
-      <c r="C18" s="59" t="str">
-        <f>"[" &amp; ROUND(H18,2) &amp; "; " &amp; ROUND(H19, 2) &amp; ")"</f>
+      <c r="C18" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[-1,95; 2,11)</v>
       </c>
-      <c r="D18" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H18)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)</f>
+      <c r="D18" s="40">
+        <f t="shared" ref="D18:D24" si="4">COUNTIF($B$1:$DP$1,"&gt;="&amp;H18)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)</f>
         <v>27</v>
       </c>
-      <c r="E18" s="59">
-        <f>D18/$B$8</f>
+      <c r="E18" s="39">
+        <f t="shared" si="1"/>
         <v>0.22689075630252101</v>
       </c>
-      <c r="F18" s="58">
-        <f>AVERAGE(H18,H19)</f>
+      <c r="F18" s="38">
+        <f t="shared" si="2"/>
         <v>7.9822748475758321E-2</v>
       </c>
-      <c r="G18" s="57">
-        <f>E18/$B$9</f>
+      <c r="G18" s="37">
+        <f t="shared" si="3"/>
         <v>5.597796984116115E-2</v>
       </c>
       <c r="H18">
-        <f>$B$9+H17</f>
+        <f t="shared" ref="H18:H25" si="5">$B$9+H17</f>
         <v>-1.9467848343494945</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="61">
+      <c r="B19" s="41">
         <v>3</v>
       </c>
-      <c r="C19" s="59" t="str">
-        <f>"[" &amp; ROUND(H19,2) &amp; "; " &amp; ROUND(H20, 2) &amp; ")"</f>
+      <c r="C19" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[2,11; 6,16)</v>
       </c>
-      <c r="D19" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H19)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H20)</f>
+      <c r="D19" s="40">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E19" s="59">
-        <f>D19/$B$8</f>
+      <c r="E19" s="39">
+        <f t="shared" si="1"/>
         <v>0.18487394957983194</v>
       </c>
-      <c r="F19" s="58">
-        <f>AVERAGE(H19,H20)</f>
+      <c r="F19" s="38">
+        <f t="shared" si="2"/>
         <v>4.1330379141262643</v>
       </c>
-      <c r="G19" s="57">
-        <f>E19/$B$9</f>
+      <c r="G19" s="37">
+        <f t="shared" si="3"/>
         <v>4.5611679129835013E-2</v>
       </c>
       <c r="H19">
-        <f>$B$9+H18</f>
+        <f t="shared" si="5"/>
         <v>2.1064303313010111</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="61">
+      <c r="B20" s="41">
         <v>4</v>
       </c>
-      <c r="C20" s="59" t="str">
-        <f>"[" &amp; ROUND(H20,2) &amp; "; " &amp; ROUND(H21, 2) &amp; ")"</f>
+      <c r="C20" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[6,16; 10,21)</v>
       </c>
-      <c r="D20" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H20)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H21)</f>
+      <c r="D20" s="40">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="E20" s="59">
-        <f>D20/$B$8</f>
+      <c r="E20" s="39">
+        <f t="shared" si="1"/>
         <v>0.1092436974789916</v>
       </c>
-      <c r="F20" s="58">
-        <f>AVERAGE(H20,H21)</f>
+      <c r="F20" s="38">
+        <f t="shared" si="2"/>
         <v>8.186253079776769</v>
       </c>
-      <c r="G20" s="57">
-        <f>E20/$B$9</f>
+      <c r="G20" s="37">
+        <f t="shared" si="3"/>
         <v>2.6952355849447964E-2</v>
       </c>
       <c r="H20">
-        <f>$B$9+H19</f>
+        <f t="shared" si="5"/>
         <v>6.1596454969515166</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="61">
+      <c r="B21" s="41">
         <v>5</v>
       </c>
-      <c r="C21" s="59" t="str">
-        <f>"[" &amp; ROUND(H21,2) &amp; "; " &amp; ROUND(H22, 2) &amp; ")"</f>
+      <c r="C21" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[10,21; 14,27)</v>
       </c>
-      <c r="D21" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H21)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H22)</f>
+      <c r="D21" s="40">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E21" s="59">
-        <f>D21/$B$8</f>
+      <c r="E21" s="39">
+        <f t="shared" si="1"/>
         <v>9.2436974789915971E-2</v>
       </c>
-      <c r="F21" s="58">
-        <f>AVERAGE(H21,H22)</f>
+      <c r="F21" s="38">
+        <f t="shared" si="2"/>
         <v>12.239468245427275</v>
       </c>
-      <c r="G21" s="57">
-        <f>E21/$B$9</f>
+      <c r="G21" s="37">
+        <f t="shared" si="3"/>
         <v>2.2805839564917506E-2</v>
       </c>
       <c r="H21">
-        <f>$B$9+H20</f>
+        <f t="shared" si="5"/>
         <v>10.212860662602022</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="61">
+      <c r="B22" s="41">
         <v>6</v>
       </c>
-      <c r="C22" s="59" t="str">
-        <f>"[" &amp; ROUND(H22,2) &amp; "; " &amp; ROUND(H23, 2) &amp; ")"</f>
+      <c r="C22" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[14,27; 18,32)</v>
       </c>
-      <c r="D22" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H22)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H23)</f>
+      <c r="D22" s="40">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E22" s="59">
-        <f>D22/$B$8</f>
+      <c r="E22" s="39">
+        <f t="shared" si="1"/>
         <v>0.12605042016806722</v>
       </c>
-      <c r="F22" s="58">
-        <f>AVERAGE(H22,H23)</f>
+      <c r="F22" s="38">
+        <f t="shared" si="2"/>
         <v>16.292683411077782</v>
       </c>
-      <c r="G22" s="57">
-        <f>E22/$B$9</f>
+      <c r="G22" s="37">
+        <f t="shared" si="3"/>
         <v>3.1098872133978418E-2</v>
       </c>
       <c r="H22">
-        <f>$B$9+H21</f>
+        <f t="shared" si="5"/>
         <v>14.266075828252529</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="61">
+      <c r="B23" s="41">
         <v>7</v>
       </c>
-      <c r="C23" s="59" t="str">
-        <f>"[" &amp; ROUND(H23,2) &amp; "; " &amp; ROUND(H24, 2) &amp; ")"</f>
+      <c r="C23" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>[18,32; 22,37)</v>
       </c>
-      <c r="D23" s="60">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H23)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H24)</f>
+      <c r="D23" s="40">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="E23" s="59">
-        <f>D23/$B$8</f>
+      <c r="E23" s="39">
+        <f t="shared" si="1"/>
         <v>7.5630252100840331E-2</v>
       </c>
-      <c r="F23" s="58">
-        <f>AVERAGE(H23,H24)</f>
+      <c r="F23" s="38">
+        <f t="shared" si="2"/>
         <v>20.345898576728288</v>
       </c>
-      <c r="G23" s="57">
-        <f>E23/$B$9</f>
+      <c r="G23" s="37">
+        <f t="shared" si="3"/>
         <v>1.8659323280387049E-2</v>
       </c>
       <c r="H23">
-        <f>$B$9+H22</f>
+        <f t="shared" si="5"/>
         <v>18.319290993903035</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="56">
+      <c r="B24" s="36">
         <v>8</v>
       </c>
-      <c r="C24" s="54" t="str">
-        <f>"[" &amp; ROUND(H24,2) &amp; "; " &amp; ROUND(H25, 2) &amp; ")"</f>
+      <c r="C24" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>[22,37; 26,43)</v>
       </c>
-      <c r="D24" s="55">
-        <f>COUNTIF($B$1:$DP$1,"&gt;="&amp;H24)-COUNTIF($B$1:$DP$1,"&gt;="&amp;H25)</f>
+      <c r="D24" s="35">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E24" s="54">
-        <f>D24/$B$8</f>
+      <c r="E24" s="34">
+        <f t="shared" si="1"/>
         <v>9.2436974789915971E-2</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="33">
         <f>AVERAGE(H24,A25)</f>
         <v>22.372506159553541</v>
       </c>
-      <c r="G24" s="52">
-        <f>E24/$B$9</f>
+      <c r="G24" s="32">
+        <f t="shared" si="3"/>
         <v>2.2805839564917506E-2</v>
       </c>
       <c r="H24">
-        <f>$B$9+H23</f>
+        <f t="shared" si="5"/>
         <v>22.372506159553541</v>
       </c>
     </row>
@@ -16040,34 +16045,34 @@
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="51">
+      <c r="C25" s="27"/>
+      <c r="D25" s="31">
         <f>SUM(D17:D24)</f>
         <v>119</v>
       </c>
-      <c r="E25" s="50">
-        <f>D25/$B$8</f>
+      <c r="E25" s="30">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="48"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
       <c r="H25">
-        <f>$B$9+H24</f>
+        <f t="shared" si="5"/>
         <v>26.425721325204048</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F57" s="2">
@@ -16082,51 +16087,51 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F59" s="2">
-        <f>F58+E18</f>
+        <f t="shared" ref="F59:F65" si="6">F58+E18</f>
         <v>0.31932773109243695</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F60" s="2">
-        <f>F59+E19</f>
+        <f t="shared" si="6"/>
         <v>0.50420168067226889</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F61" s="2">
-        <f>F60+E20</f>
+        <f t="shared" si="6"/>
         <v>0.61344537815126055</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F62" s="2">
-        <f>F61+E21</f>
+        <f t="shared" si="6"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F63" s="2">
-        <f>F62+E22</f>
+        <f t="shared" si="6"/>
         <v>0.83193277310924374</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F64" s="2">
-        <f>F63+E23</f>
+        <f t="shared" si="6"/>
         <v>0.90756302521008403</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F65" s="2">
-        <f>F64+E24</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="65"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -16269,4492 +16274,4492 @@
       </c>
     </row>
     <row r="98" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
     </row>
     <row r="99" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="44">
+      <c r="C99" s="26">
         <f>SUM(B2:L2)/D17</f>
         <v>-3.6363636363636362</v>
       </c>
-      <c r="D99" s="45" t="s">
+      <c r="D99" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="44">
+      <c r="E99" s="26">
         <f>SUM(B110:L110)/D17</f>
         <v>1.5041322314049588</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="76">
         <f>E107/E108</f>
         <v>0.98444686863842923</v>
       </c>
     </row>
     <row r="100" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C100" s="44">
+      <c r="C100" s="26">
         <f>SUM(M2:AM2)/D18</f>
         <v>1.1481481481481481</v>
       </c>
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E100" s="44">
+      <c r="E100" s="26">
         <f>SUM(M110:AM110)/D18</f>
         <v>23.758494031221311</v>
       </c>
-      <c r="F100" s="43"/>
+      <c r="F100" s="76"/>
     </row>
     <row r="101" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="44">
+      <c r="C101" s="26">
         <f>SUM(AN2:BI2)/D19</f>
         <v>4.7272727272727275</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E101" s="44">
+      <c r="E101" s="26">
         <f>SUM(AN111:BI111)/D19</f>
         <v>14.190298042149896</v>
       </c>
-      <c r="F101" s="43"/>
+      <c r="F101" s="76"/>
     </row>
     <row r="102" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="44">
+      <c r="C102" s="26">
         <f>SUM(BJ2:BV2)/D20</f>
         <v>8.384615384615385</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="44">
+      <c r="E102" s="26">
         <f>SUM(BJ112:BV112)/D20</f>
         <v>14.535918626827716</v>
       </c>
-      <c r="F102" s="43"/>
+      <c r="F102" s="76"/>
     </row>
     <row r="103" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="44">
+      <c r="C103" s="26">
         <f>SUM(BW2:CG2)/D21</f>
         <v>12.636363636363637</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E103" s="44">
+      <c r="E103" s="26">
         <f>SUM(BW113:CG113)/D21</f>
         <v>19.217859064012906</v>
       </c>
-      <c r="F103" s="43"/>
+      <c r="F103" s="76"/>
     </row>
     <row r="104" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="44">
+      <c r="C104" s="26">
         <f>SUM(CH2:CV2)/D22</f>
         <v>16.333333333333332</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="44">
+      <c r="E104" s="26">
         <f>SUM(CH114:CV114)/D22</f>
         <v>14.956473829201096</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="76"/>
     </row>
     <row r="105" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C105" s="44">
+      <c r="C105" s="26">
         <f>SUM(CW2:DE2)/D23</f>
         <v>20.888888888888889</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="44">
+      <c r="E105" s="26">
         <f>SUM(CW115:DE115)/D23</f>
         <v>21.518518518518526</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="76"/>
     </row>
     <row r="106" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="44">
+      <c r="C106" s="26">
         <f>SUM(DF2:DP2)/D24</f>
         <v>24.09090909090909</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="26">
         <f>SUM(DF116:DP116)/D24</f>
         <v>11.244668911335575</v>
       </c>
-      <c r="F106" s="43"/>
+      <c r="F106" s="76"/>
     </row>
     <row r="107" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="44">
+      <c r="C107" s="26">
         <f>SUM(B2:DP2)/B3</f>
         <v>8.7478991596638647</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="44">
+      <c r="E107" s="26">
         <f>(POWER(C99-C107,2)*D17+POWER(C100-C107,2)*D18+POWER(C101-C107,2)*D19+POWER(C102-C107,2)*D20+POWER(C103-C107,2)*D21+POWER(C104-C107,2)*D22+POWER(C105-C107,2)*D23+POWER(C106-C107,2)*D24)/B3</f>
         <v>71.843418367392658</v>
       </c>
-      <c r="F107" s="43"/>
+      <c r="F107" s="76"/>
     </row>
     <row r="108" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45" t="s">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E108" s="44">
+      <c r="E108" s="26">
         <f>SUM(B118:DP118)/B3</f>
         <v>72.978461973024508</v>
       </c>
-      <c r="F108" s="43"/>
+      <c r="F108" s="76"/>
     </row>
     <row r="110" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B110">
-        <f>POWER(B$2-$C99,2)</f>
+        <f t="shared" ref="B110:AG110" si="7">POWER(B$2-$C99,2)</f>
         <v>5.5867768595041332</v>
       </c>
       <c r="C110">
-        <f>POWER(C$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>1.8595041322314052</v>
       </c>
       <c r="D110">
-        <f>POWER(D$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>1.8595041322314052</v>
       </c>
       <c r="E110">
-        <f>POWER(E$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.13223140495867777</v>
       </c>
       <c r="F110">
-        <f>POWER(F$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.13223140495867777</v>
       </c>
       <c r="G110">
-        <f>POWER(G$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="H110">
-        <f>POWER(H$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="I110">
-        <f>POWER(I$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="J110">
-        <f>POWER(J$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>0.40495867768595029</v>
       </c>
       <c r="K110">
-        <f>POWER(K$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>2.6776859504132227</v>
       </c>
       <c r="L110">
-        <f>POWER(L$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>2.6776859504132227</v>
       </c>
       <c r="M110">
-        <f>POWER(M$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>6.9504132231404956</v>
       </c>
       <c r="N110">
-        <f>POWER(N$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>6.9504132231404956</v>
       </c>
       <c r="O110">
-        <f>POWER(O$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="P110">
-        <f>POWER(P$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="Q110">
-        <f>POWER(Q$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="R110">
-        <f>POWER(R$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>13.223140495867767</v>
       </c>
       <c r="S110">
-        <f>POWER(S$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="T110">
-        <f>POWER(T$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="U110">
-        <f>POWER(U$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="V110">
-        <f>POWER(V$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="W110">
-        <f>POWER(W$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="X110">
-        <f>POWER(X$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="Y110">
-        <f>POWER(Y$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="Z110">
-        <f>POWER(Z$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="AA110">
-        <f>POWER(AA$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>21.495867768595044</v>
       </c>
       <c r="AB110">
-        <f>POWER(AB$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AC110">
-        <f>POWER(AC$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AD110">
-        <f>POWER(AD$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AE110">
-        <f>POWER(AE$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AF110">
-        <f>POWER(AF$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AG110">
-        <f>POWER(AG$2-$C99,2)</f>
+        <f t="shared" si="7"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AH110">
-        <f>POWER(AH$2-$C99,2)</f>
+        <f t="shared" ref="AH110:BM110" si="8">POWER(AH$2-$C99,2)</f>
         <v>31.768595041322317</v>
       </c>
       <c r="AI110">
-        <f>POWER(AI$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AJ110">
-        <f>POWER(AJ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AK110">
-        <f>POWER(AK$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AL110">
-        <f>POWER(AL$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AM110">
-        <f>POWER(AM$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>31.768595041322317</v>
       </c>
       <c r="AN110">
-        <f>POWER(AN$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AO110">
-        <f>POWER(AO$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AP110">
-        <f>POWER(AP$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AQ110">
-        <f>POWER(AQ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AR110">
-        <f>POWER(AR$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>44.041322314049594</v>
       </c>
       <c r="AS110">
-        <f>POWER(AS$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AT110">
-        <f>POWER(AT$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AU110">
-        <f>POWER(AU$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AV110">
-        <f>POWER(AV$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AW110">
-        <f>POWER(AW$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AX110">
-        <f>POWER(AX$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AY110">
-        <f>POWER(AY$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AZ110">
-        <f>POWER(AZ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="BA110">
-        <f>POWER(BA$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>74.586776859504141</v>
       </c>
       <c r="BB110">
-        <f>POWER(BB$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BC110">
-        <f>POWER(BC$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BD110">
-        <f>POWER(BD$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BE110">
-        <f>POWER(BE$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BF110">
-        <f>POWER(BF$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BG110">
-        <f>POWER(BG$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BH110">
-        <f>POWER(BH$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BI110">
-        <f>POWER(BI$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>92.859504132231407</v>
       </c>
       <c r="BJ110">
-        <f>POWER(BJ$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BK110">
-        <f>POWER(BK$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BL110">
-        <f>POWER(BL$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>113.13223140495869</v>
       </c>
       <c r="BM110">
-        <f>POWER(BM$2-$C99,2)</f>
+        <f t="shared" si="8"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BN110">
-        <f>POWER(BN$2-$C99,2)</f>
+        <f t="shared" ref="BN110:CS110" si="9">POWER(BN$2-$C99,2)</f>
         <v>135.40495867768595</v>
       </c>
       <c r="BO110">
-        <f>POWER(BO$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BP110">
-        <f>POWER(BP$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BQ110">
-        <f>POWER(BQ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>135.40495867768595</v>
       </c>
       <c r="BR110">
-        <f>POWER(BR$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>159.67768595041323</v>
       </c>
       <c r="BS110">
-        <f>POWER(BS$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>159.67768595041323</v>
       </c>
       <c r="BT110">
-        <f>POWER(BT$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BU110">
-        <f>POWER(BU$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BV110">
-        <f>POWER(BV$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>185.95041322314052</v>
       </c>
       <c r="BW110">
-        <f>POWER(BW$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>214.22314049586777</v>
       </c>
       <c r="BX110">
-        <f>POWER(BX$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>214.22314049586777</v>
       </c>
       <c r="BY110">
-        <f>POWER(BY$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="BZ110">
-        <f>POWER(BZ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="CA110">
-        <f>POWER(CA$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>244.49586776859505</v>
       </c>
       <c r="CB110">
-        <f>POWER(CB$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CC110">
-        <f>POWER(CC$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CD110">
-        <f>POWER(CD$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>276.76859504132233</v>
       </c>
       <c r="CE110">
-        <f>POWER(CE$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CF110">
-        <f>POWER(CF$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CG110">
-        <f>POWER(CG$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>311.04132231404958</v>
       </c>
       <c r="CH110">
-        <f>POWER(CH$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CI110">
-        <f>POWER(CI$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CJ110">
-        <f>POWER(CJ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CK110">
-        <f>POWER(CK$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CL110">
-        <f>POWER(CL$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>347.31404958677689</v>
       </c>
       <c r="CM110">
-        <f>POWER(CM$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CN110">
-        <f>POWER(CN$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CO110">
-        <f>POWER(CO$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>385.58677685950414</v>
       </c>
       <c r="CP110">
-        <f>POWER(CP$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CQ110">
-        <f>POWER(CQ$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CR110">
-        <f>POWER(CR$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CS110">
-        <f>POWER(CS$2-$C99,2)</f>
+        <f t="shared" si="9"/>
         <v>425.85950413223139</v>
       </c>
       <c r="CT110">
-        <f>POWER(CT$2-$C99,2)</f>
+        <f t="shared" ref="CT110:DP110" si="10">POWER(CT$2-$C99,2)</f>
         <v>468.1322314049587</v>
       </c>
       <c r="CU110">
-        <f>POWER(CU$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>468.1322314049587</v>
       </c>
       <c r="CV110">
-        <f>POWER(CV$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>468.1322314049587</v>
       </c>
       <c r="CW110">
-        <f>POWER(CW$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CX110">
-        <f>POWER(CX$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CY110">
-        <f>POWER(CY$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="CZ110">
-        <f>POWER(CZ$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>558.67768595041321</v>
       </c>
       <c r="DA110">
-        <f>POWER(DA$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>606.95041322314046</v>
       </c>
       <c r="DB110">
-        <f>POWER(DB$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>606.95041322314046</v>
       </c>
       <c r="DC110">
-        <f>POWER(DC$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DD110">
-        <f>POWER(DD$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DE110">
-        <f>POWER(DE$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>657.22314049586782</v>
       </c>
       <c r="DF110">
-        <f>POWER(DF$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DG110">
-        <f>POWER(DG$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DH110">
-        <f>POWER(DH$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DI110">
-        <f>POWER(DI$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>709.49586776859508</v>
       </c>
       <c r="DJ110">
-        <f>POWER(DJ$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DK110">
-        <f>POWER(DK$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DL110">
-        <f>POWER(DL$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>763.76859504132233</v>
       </c>
       <c r="DM110">
-        <f>POWER(DM$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DN110">
-        <f>POWER(DN$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DO110">
-        <f>POWER(DO$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>820.04132231404958</v>
       </c>
       <c r="DP110">
-        <f>POWER(DP$2-$C99,2)</f>
+        <f t="shared" si="10"/>
         <v>878.31404958677683</v>
       </c>
     </row>
     <row r="111" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B111">
-        <f>POWER(B$2-$C100,2)</f>
+        <f t="shared" ref="B111:AG111" si="11">POWER(B$2-$C100,2)</f>
         <v>51.096021947873794</v>
       </c>
       <c r="C111">
-        <f>POWER(C$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>37.799725651577504</v>
       </c>
       <c r="D111">
-        <f>POWER(D$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>37.799725651577504</v>
       </c>
       <c r="E111">
-        <f>POWER(E$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>26.503429355281206</v>
       </c>
       <c r="F111">
-        <f>POWER(F$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>26.503429355281206</v>
       </c>
       <c r="G111">
-        <f>POWER(G$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="H111">
-        <f>POWER(H$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="I111">
-        <f>POWER(I$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="J111">
-        <f>POWER(J$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>17.207133058984908</v>
       </c>
       <c r="K111">
-        <f>POWER(K$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>9.9108367626886125</v>
       </c>
       <c r="L111">
-        <f>POWER(L$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>9.9108367626886125</v>
       </c>
       <c r="M111">
-        <f>POWER(M$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>4.6145404663923175</v>
       </c>
       <c r="N111">
-        <f>POWER(N$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>4.6145404663923175</v>
       </c>
       <c r="O111">
-        <f>POWER(O$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="P111">
-        <f>POWER(P$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="Q111">
-        <f>POWER(Q$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="R111">
-        <f>POWER(R$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>1.3182441700960219</v>
       </c>
       <c r="S111">
-        <f>POWER(S$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="T111">
-        <f>POWER(T$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="U111">
-        <f>POWER(U$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="V111">
-        <f>POWER(V$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="W111">
-        <f>POWER(W$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="X111">
-        <f>POWER(X$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="Y111">
-        <f>POWER(Y$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="Z111">
-        <f>POWER(Z$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="AA111">
-        <f>POWER(AA$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>2.194787379972565E-2</v>
       </c>
       <c r="AB111">
-        <f>POWER(AB$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AC111">
-        <f>POWER(AC$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AD111">
-        <f>POWER(AD$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AE111">
-        <f>POWER(AE$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AF111">
-        <f>POWER(AF$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AG111">
-        <f>POWER(AG$2-$C100,2)</f>
+        <f t="shared" si="11"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AH111">
-        <f>POWER(AH$2-$C100,2)</f>
+        <f t="shared" ref="AH111:BM111" si="12">POWER(AH$2-$C100,2)</f>
         <v>0.72565157750342935</v>
       </c>
       <c r="AI111">
-        <f>POWER(AI$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AJ111">
-        <f>POWER(AJ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AK111">
-        <f>POWER(AK$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AL111">
-        <f>POWER(AL$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AM111">
-        <f>POWER(AM$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>0.72565157750342935</v>
       </c>
       <c r="AN111">
-        <f>POWER(AN$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AO111">
-        <f>POWER(AO$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AP111">
-        <f>POWER(AP$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AQ111">
-        <f>POWER(AQ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AR111">
-        <f>POWER(AR$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>3.4293552812071333</v>
       </c>
       <c r="AS111">
-        <f>POWER(AS$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AT111">
-        <f>POWER(AT$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AU111">
-        <f>POWER(AU$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AV111">
-        <f>POWER(AV$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>8.1330589849108375</v>
       </c>
       <c r="AW111">
-        <f>POWER(AW$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AX111">
-        <f>POWER(AX$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AY111">
-        <f>POWER(AY$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="AZ111">
-        <f>POWER(AZ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="BA111">
-        <f>POWER(BA$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>14.836762688614542</v>
       </c>
       <c r="BB111">
-        <f>POWER(BB$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BC111">
-        <f>POWER(BC$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BD111">
-        <f>POWER(BD$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BE111">
-        <f>POWER(BE$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BF111">
-        <f>POWER(BF$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BG111">
-        <f>POWER(BG$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BH111">
-        <f>POWER(BH$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BI111">
-        <f>POWER(BI$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>23.540466392318248</v>
       </c>
       <c r="BJ111">
-        <f>POWER(BJ$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BK111">
-        <f>POWER(BK$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BL111">
-        <f>POWER(BL$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>34.244170096021953</v>
       </c>
       <c r="BM111">
-        <f>POWER(BM$2-$C100,2)</f>
+        <f t="shared" si="12"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BN111">
-        <f>POWER(BN$2-$C100,2)</f>
+        <f t="shared" ref="BN111:CS111" si="13">POWER(BN$2-$C100,2)</f>
         <v>46.947873799725656</v>
       </c>
       <c r="BO111">
-        <f>POWER(BO$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BP111">
-        <f>POWER(BP$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BQ111">
-        <f>POWER(BQ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>46.947873799725656</v>
       </c>
       <c r="BR111">
-        <f>POWER(BR$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>61.651577503429358</v>
       </c>
       <c r="BS111">
-        <f>POWER(BS$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>61.651577503429358</v>
       </c>
       <c r="BT111">
-        <f>POWER(BT$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BU111">
-        <f>POWER(BU$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BV111">
-        <f>POWER(BV$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>78.355281207133046</v>
       </c>
       <c r="BW111">
-        <f>POWER(BW$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>97.058984910836756</v>
       </c>
       <c r="BX111">
-        <f>POWER(BX$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>97.058984910836756</v>
       </c>
       <c r="BY111">
-        <f>POWER(BY$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="BZ111">
-        <f>POWER(BZ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="CA111">
-        <f>POWER(CA$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>117.76268861454045</v>
       </c>
       <c r="CB111">
-        <f>POWER(CB$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CC111">
-        <f>POWER(CC$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CD111">
-        <f>POWER(CD$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>140.46639231824415</v>
       </c>
       <c r="CE111">
-        <f>POWER(CE$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CF111">
-        <f>POWER(CF$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CG111">
-        <f>POWER(CG$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>165.17009602194787</v>
       </c>
       <c r="CH111">
-        <f>POWER(CH$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CI111">
-        <f>POWER(CI$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CJ111">
-        <f>POWER(CJ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CK111">
-        <f>POWER(CK$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CL111">
-        <f>POWER(CL$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>191.87379972565157</v>
       </c>
       <c r="CM111">
-        <f>POWER(CM$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CN111">
-        <f>POWER(CN$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CO111">
-        <f>POWER(CO$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>220.57750342935526</v>
       </c>
       <c r="CP111">
-        <f>POWER(CP$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CQ111">
-        <f>POWER(CQ$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CR111">
-        <f>POWER(CR$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CS111">
-        <f>POWER(CS$2-$C100,2)</f>
+        <f t="shared" si="13"/>
         <v>251.28120713305896</v>
       </c>
       <c r="CT111">
-        <f>POWER(CT$2-$C100,2)</f>
+        <f t="shared" ref="CT111:DP111" si="14">POWER(CT$2-$C100,2)</f>
         <v>283.98491083676265</v>
       </c>
       <c r="CU111">
-        <f>POWER(CU$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>283.98491083676265</v>
       </c>
       <c r="CV111">
-        <f>POWER(CV$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>283.98491083676265</v>
       </c>
       <c r="CW111">
-        <f>POWER(CW$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CX111">
-        <f>POWER(CX$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CY111">
-        <f>POWER(CY$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="CZ111">
-        <f>POWER(CZ$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>355.3923182441701</v>
       </c>
       <c r="DA111">
-        <f>POWER(DA$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>394.09602194787379</v>
       </c>
       <c r="DB111">
-        <f>POWER(DB$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>394.09602194787379</v>
       </c>
       <c r="DC111">
-        <f>POWER(DC$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DD111">
-        <f>POWER(DD$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DE111">
-        <f>POWER(DE$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>434.79972565157749</v>
       </c>
       <c r="DF111">
-        <f>POWER(DF$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DG111">
-        <f>POWER(DG$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DH111">
-        <f>POWER(DH$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DI111">
-        <f>POWER(DI$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>477.50342935528118</v>
       </c>
       <c r="DJ111">
-        <f>POWER(DJ$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DK111">
-        <f>POWER(DK$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DL111">
-        <f>POWER(DL$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>522.20713305898494</v>
       </c>
       <c r="DM111">
-        <f>POWER(DM$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DN111">
-        <f>POWER(DN$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DO111">
-        <f>POWER(DO$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>568.91083676268863</v>
       </c>
       <c r="DP111">
-        <f>POWER(DP$2-$C100,2)</f>
+        <f t="shared" si="14"/>
         <v>617.61454046639233</v>
       </c>
     </row>
     <row r="112" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B112">
-        <f>POWER(B$2-$C101,2)</f>
+        <f t="shared" ref="B112:AG112" si="15">POWER(B$2-$C101,2)</f>
         <v>115.07438016528924</v>
       </c>
       <c r="C112">
-        <f>POWER(C$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>94.619834710743788</v>
       </c>
       <c r="D112">
-        <f>POWER(D$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>94.619834710743788</v>
       </c>
       <c r="E112">
-        <f>POWER(E$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>76.165289256198335</v>
       </c>
       <c r="F112">
-        <f>POWER(F$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>76.165289256198335</v>
       </c>
       <c r="G112">
-        <f>POWER(G$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="H112">
-        <f>POWER(H$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="I112">
-        <f>POWER(I$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="J112">
-        <f>POWER(J$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>59.710743801652896</v>
       </c>
       <c r="K112">
-        <f>POWER(K$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>45.256198347107443</v>
       </c>
       <c r="L112">
-        <f>POWER(L$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>45.256198347107443</v>
       </c>
       <c r="M112">
-        <f>POWER(M$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>32.801652892561989</v>
       </c>
       <c r="N112">
-        <f>POWER(N$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>32.801652892561989</v>
       </c>
       <c r="O112">
-        <f>POWER(O$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="P112">
-        <f>POWER(P$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="Q112">
-        <f>POWER(Q$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="R112">
-        <f>POWER(R$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>22.347107438016533</v>
       </c>
       <c r="S112">
-        <f>POWER(S$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="T112">
-        <f>POWER(T$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="U112">
-        <f>POWER(U$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="V112">
-        <f>POWER(V$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="W112">
-        <f>POWER(W$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="X112">
-        <f>POWER(X$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="Y112">
-        <f>POWER(Y$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="Z112">
-        <f>POWER(Z$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="AA112">
-        <f>POWER(AA$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>13.892561983471076</v>
       </c>
       <c r="AB112">
-        <f>POWER(AB$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AC112">
-        <f>POWER(AC$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AD112">
-        <f>POWER(AD$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AE112">
-        <f>POWER(AE$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AF112">
-        <f>POWER(AF$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AG112">
-        <f>POWER(AG$2-$C101,2)</f>
+        <f t="shared" si="15"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AH112">
-        <f>POWER(AH$2-$C101,2)</f>
+        <f t="shared" ref="AH112:BM112" si="16">POWER(AH$2-$C101,2)</f>
         <v>7.4380165289256208</v>
       </c>
       <c r="AI112">
-        <f>POWER(AI$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AJ112">
-        <f>POWER(AJ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AK112">
-        <f>POWER(AK$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AL112">
-        <f>POWER(AL$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AM112">
-        <f>POWER(AM$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256208</v>
       </c>
       <c r="AN112">
-        <f>POWER(AN$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AO112">
-        <f>POWER(AO$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AP112">
-        <f>POWER(AP$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AQ112">
-        <f>POWER(AQ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AR112">
-        <f>POWER(AR$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>2.9834710743801662</v>
       </c>
       <c r="AS112">
-        <f>POWER(AS$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AT112">
-        <f>POWER(AT$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AU112">
-        <f>POWER(AU$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AV112">
-        <f>POWER(AV$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>0.52892561983471109</v>
       </c>
       <c r="AW112">
-        <f>POWER(AW$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AX112">
-        <f>POWER(AX$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AY112">
-        <f>POWER(AY$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="AZ112">
-        <f>POWER(AZ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="BA112">
-        <f>POWER(BA$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>7.4380165289256062E-2</v>
       </c>
       <c r="BB112">
-        <f>POWER(BB$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BC112">
-        <f>POWER(BC$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BD112">
-        <f>POWER(BD$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BE112">
-        <f>POWER(BE$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BF112">
-        <f>POWER(BF$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BG112">
-        <f>POWER(BG$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BH112">
-        <f>POWER(BH$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BI112">
-        <f>POWER(BI$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>1.6198347107438011</v>
       </c>
       <c r="BJ112">
-        <f>POWER(BJ$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BK112">
-        <f>POWER(BK$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BL112">
-        <f>POWER(BL$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>5.1652892561983457</v>
       </c>
       <c r="BM112">
-        <f>POWER(BM$2-$C101,2)</f>
+        <f t="shared" si="16"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BN112">
-        <f>POWER(BN$2-$C101,2)</f>
+        <f t="shared" ref="BN112:CS112" si="17">POWER(BN$2-$C101,2)</f>
         <v>10.710743801652891</v>
       </c>
       <c r="BO112">
-        <f>POWER(BO$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BP112">
-        <f>POWER(BP$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BQ112">
-        <f>POWER(BQ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>10.710743801652891</v>
       </c>
       <c r="BR112">
-        <f>POWER(BR$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>18.256198347107436</v>
       </c>
       <c r="BS112">
-        <f>POWER(BS$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>18.256198347107436</v>
       </c>
       <c r="BT112">
-        <f>POWER(BT$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BU112">
-        <f>POWER(BU$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BV112">
-        <f>POWER(BV$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>27.801652892561982</v>
       </c>
       <c r="BW112">
-        <f>POWER(BW$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>39.347107438016529</v>
       </c>
       <c r="BX112">
-        <f>POWER(BX$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>39.347107438016529</v>
       </c>
       <c r="BY112">
-        <f>POWER(BY$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="BZ112">
-        <f>POWER(BZ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="CA112">
-        <f>POWER(CA$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>52.892561983471069</v>
       </c>
       <c r="CB112">
-        <f>POWER(CB$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CC112">
-        <f>POWER(CC$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CD112">
-        <f>POWER(CD$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>68.43801652892563</v>
       </c>
       <c r="CE112">
-        <f>POWER(CE$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CF112">
-        <f>POWER(CF$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CG112">
-        <f>POWER(CG$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>85.983471074380176</v>
       </c>
       <c r="CH112">
-        <f>POWER(CH$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CI112">
-        <f>POWER(CI$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CJ112">
-        <f>POWER(CJ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CK112">
-        <f>POWER(CK$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CL112">
-        <f>POWER(CL$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>105.52892561983472</v>
       </c>
       <c r="CM112">
-        <f>POWER(CM$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CN112">
-        <f>POWER(CN$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CO112">
-        <f>POWER(CO$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>127.07438016528927</v>
       </c>
       <c r="CP112">
-        <f>POWER(CP$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CQ112">
-        <f>POWER(CQ$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CR112">
-        <f>POWER(CR$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CS112">
-        <f>POWER(CS$2-$C101,2)</f>
+        <f t="shared" si="17"/>
         <v>150.61983471074382</v>
       </c>
       <c r="CT112">
-        <f>POWER(CT$2-$C101,2)</f>
+        <f t="shared" ref="CT112:DP112" si="18">POWER(CT$2-$C101,2)</f>
         <v>176.16528925619838</v>
       </c>
       <c r="CU112">
-        <f>POWER(CU$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>176.16528925619838</v>
       </c>
       <c r="CV112">
-        <f>POWER(CV$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>176.16528925619838</v>
       </c>
       <c r="CW112">
-        <f>POWER(CW$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CX112">
-        <f>POWER(CX$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CY112">
-        <f>POWER(CY$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="CZ112">
-        <f>POWER(CZ$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>233.25619834710747</v>
       </c>
       <c r="DA112">
-        <f>POWER(DA$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>264.801652892562</v>
       </c>
       <c r="DB112">
-        <f>POWER(DB$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>264.801652892562</v>
       </c>
       <c r="DC112">
-        <f>POWER(DC$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DD112">
-        <f>POWER(DD$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DE112">
-        <f>POWER(DE$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>298.34710743801656</v>
       </c>
       <c r="DF112">
-        <f>POWER(DF$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DG112">
-        <f>POWER(DG$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DH112">
-        <f>POWER(DH$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DI112">
-        <f>POWER(DI$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>333.89256198347113</v>
       </c>
       <c r="DJ112">
-        <f>POWER(DJ$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DK112">
-        <f>POWER(DK$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DL112">
-        <f>POWER(DL$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>371.43801652892563</v>
       </c>
       <c r="DM112">
-        <f>POWER(DM$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DN112">
-        <f>POWER(DN$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DO112">
-        <f>POWER(DO$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>410.98347107438019</v>
       </c>
       <c r="DP112">
-        <f>POWER(DP$2-$C101,2)</f>
+        <f t="shared" si="18"/>
         <v>452.52892561983475</v>
       </c>
     </row>
     <row r="113" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B113">
-        <f>POWER(B$2-$C102,2)</f>
+        <f t="shared" ref="B113:AG113" si="19">POWER(B$2-$C102,2)</f>
         <v>206.91715976331363</v>
       </c>
       <c r="C113">
-        <f>POWER(C$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>179.14792899408286</v>
       </c>
       <c r="D113">
-        <f>POWER(D$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>179.14792899408286</v>
       </c>
       <c r="E113">
-        <f>POWER(E$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>153.37869822485209</v>
       </c>
       <c r="F113">
-        <f>POWER(F$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>153.37869822485209</v>
       </c>
       <c r="G113">
-        <f>POWER(G$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="H113">
-        <f>POWER(H$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="I113">
-        <f>POWER(I$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="J113">
-        <f>POWER(J$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>129.60946745562131</v>
       </c>
       <c r="K113">
-        <f>POWER(K$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>107.84023668639054</v>
       </c>
       <c r="L113">
-        <f>POWER(L$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>107.84023668639054</v>
       </c>
       <c r="M113">
-        <f>POWER(M$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>88.071005917159766</v>
       </c>
       <c r="N113">
-        <f>POWER(N$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>88.071005917159766</v>
       </c>
       <c r="O113">
-        <f>POWER(O$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="P113">
-        <f>POWER(P$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="Q113">
-        <f>POWER(Q$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="R113">
-        <f>POWER(R$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>70.301775147929007</v>
       </c>
       <c r="S113">
-        <f>POWER(S$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="T113">
-        <f>POWER(T$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="U113">
-        <f>POWER(U$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="V113">
-        <f>POWER(V$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="W113">
-        <f>POWER(W$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="X113">
-        <f>POWER(X$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="Y113">
-        <f>POWER(Y$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="Z113">
-        <f>POWER(Z$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="AA113">
-        <f>POWER(AA$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>54.532544378698233</v>
       </c>
       <c r="AB113">
-        <f>POWER(AB$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AC113">
-        <f>POWER(AC$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AD113">
-        <f>POWER(AD$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AE113">
-        <f>POWER(AE$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AF113">
-        <f>POWER(AF$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AG113">
-        <f>POWER(AG$2-$C102,2)</f>
+        <f t="shared" si="19"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AH113">
-        <f>POWER(AH$2-$C102,2)</f>
+        <f t="shared" ref="AH113:BM113" si="20">POWER(AH$2-$C102,2)</f>
         <v>40.76331360946746</v>
       </c>
       <c r="AI113">
-        <f>POWER(AI$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AJ113">
-        <f>POWER(AJ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AK113">
-        <f>POWER(AK$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AL113">
-        <f>POWER(AL$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AM113">
-        <f>POWER(AM$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>40.76331360946746</v>
       </c>
       <c r="AN113">
-        <f>POWER(AN$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AO113">
-        <f>POWER(AO$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AP113">
-        <f>POWER(AP$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AQ113">
-        <f>POWER(AQ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AR113">
-        <f>POWER(AR$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>28.99408284023669</v>
       </c>
       <c r="AS113">
-        <f>POWER(AS$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AT113">
-        <f>POWER(AT$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AU113">
-        <f>POWER(AU$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AV113">
-        <f>POWER(AV$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>19.22485207100592</v>
       </c>
       <c r="AW113">
-        <f>POWER(AW$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AX113">
-        <f>POWER(AX$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AY113">
-        <f>POWER(AY$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="AZ113">
-        <f>POWER(AZ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="BA113">
-        <f>POWER(BA$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>11.455621301775151</v>
       </c>
       <c r="BB113">
-        <f>POWER(BB$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BC113">
-        <f>POWER(BC$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BD113">
-        <f>POWER(BD$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BE113">
-        <f>POWER(BE$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BF113">
-        <f>POWER(BF$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BG113">
-        <f>POWER(BG$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BH113">
-        <f>POWER(BH$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BI113">
-        <f>POWER(BI$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>5.6863905325443804</v>
       </c>
       <c r="BJ113">
-        <f>POWER(BJ$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BK113">
-        <f>POWER(BK$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BL113">
-        <f>POWER(BL$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>1.9171597633136106</v>
       </c>
       <c r="BM113">
-        <f>POWER(BM$2-$C102,2)</f>
+        <f t="shared" si="20"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BN113">
-        <f>POWER(BN$2-$C102,2)</f>
+        <f t="shared" ref="BN113:CS113" si="21">POWER(BN$2-$C102,2)</f>
         <v>0.14792899408284055</v>
       </c>
       <c r="BO113">
-        <f>POWER(BO$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BP113">
-        <f>POWER(BP$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BQ113">
-        <f>POWER(BQ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.14792899408284055</v>
       </c>
       <c r="BR113">
-        <f>POWER(BR$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.3786982248520705</v>
       </c>
       <c r="BS113">
-        <f>POWER(BS$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>0.3786982248520705</v>
       </c>
       <c r="BT113">
-        <f>POWER(BT$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BU113">
-        <f>POWER(BU$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BV113">
-        <f>POWER(BV$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>2.6094674556213007</v>
       </c>
       <c r="BW113">
-        <f>POWER(BW$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>6.8402366863905302</v>
       </c>
       <c r="BX113">
-        <f>POWER(BX$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>6.8402366863905302</v>
       </c>
       <c r="BY113">
-        <f>POWER(BY$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="BZ113">
-        <f>POWER(BZ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="CA113">
-        <f>POWER(CA$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>13.071005917159761</v>
       </c>
       <c r="CB113">
-        <f>POWER(CB$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CC113">
-        <f>POWER(CC$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CD113">
-        <f>POWER(CD$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>21.301775147928989</v>
       </c>
       <c r="CE113">
-        <f>POWER(CE$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CF113">
-        <f>POWER(CF$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CG113">
-        <f>POWER(CG$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>31.532544378698219</v>
       </c>
       <c r="CH113">
-        <f>POWER(CH$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CI113">
-        <f>POWER(CI$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CJ113">
-        <f>POWER(CJ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CK113">
-        <f>POWER(CK$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CL113">
-        <f>POWER(CL$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>43.763313609467453</v>
       </c>
       <c r="CM113">
-        <f>POWER(CM$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CN113">
-        <f>POWER(CN$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CO113">
-        <f>POWER(CO$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>57.994082840236679</v>
       </c>
       <c r="CP113">
-        <f>POWER(CP$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CQ113">
-        <f>POWER(CQ$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CR113">
-        <f>POWER(CR$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CS113">
-        <f>POWER(CS$2-$C102,2)</f>
+        <f t="shared" si="21"/>
         <v>74.224852071005913</v>
       </c>
       <c r="CT113">
-        <f>POWER(CT$2-$C102,2)</f>
+        <f t="shared" ref="CT113:DP113" si="22">POWER(CT$2-$C102,2)</f>
         <v>92.455621301775139</v>
       </c>
       <c r="CU113">
-        <f>POWER(CU$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>92.455621301775139</v>
       </c>
       <c r="CV113">
-        <f>POWER(CV$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>92.455621301775139</v>
       </c>
       <c r="CW113">
-        <f>POWER(CW$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CX113">
-        <f>POWER(CX$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CY113">
-        <f>POWER(CY$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="CZ113">
-        <f>POWER(CZ$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>134.91715976331361</v>
       </c>
       <c r="DA113">
-        <f>POWER(DA$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>159.14792899408283</v>
       </c>
       <c r="DB113">
-        <f>POWER(DB$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>159.14792899408283</v>
       </c>
       <c r="DC113">
-        <f>POWER(DC$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DD113">
-        <f>POWER(DD$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DE113">
-        <f>POWER(DE$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>185.37869822485206</v>
       </c>
       <c r="DF113">
-        <f>POWER(DF$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DG113">
-        <f>POWER(DG$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DH113">
-        <f>POWER(DH$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DI113">
-        <f>POWER(DI$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>213.60946745562129</v>
       </c>
       <c r="DJ113">
-        <f>POWER(DJ$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DK113">
-        <f>POWER(DK$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DL113">
-        <f>POWER(DL$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>243.84023668639051</v>
       </c>
       <c r="DM113">
-        <f>POWER(DM$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DN113">
-        <f>POWER(DN$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DO113">
-        <f>POWER(DO$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>276.07100591715971</v>
       </c>
       <c r="DP113">
-        <f>POWER(DP$2-$C102,2)</f>
+        <f t="shared" si="22"/>
         <v>310.30177514792894</v>
       </c>
     </row>
     <row r="114" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B114">
-        <f>POWER(B$2-$C103,2)</f>
+        <f t="shared" ref="B114:AG114" si="23">POWER(B$2-$C103,2)</f>
         <v>347.31404958677689</v>
       </c>
       <c r="C114">
-        <f>POWER(C$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>311.04132231404958</v>
       </c>
       <c r="D114">
-        <f>POWER(D$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>311.04132231404958</v>
       </c>
       <c r="E114">
-        <f>POWER(E$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>276.76859504132233</v>
       </c>
       <c r="F114">
-        <f>POWER(F$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>276.76859504132233</v>
       </c>
       <c r="G114">
-        <f>POWER(G$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="H114">
-        <f>POWER(H$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="I114">
-        <f>POWER(I$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="J114">
-        <f>POWER(J$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>244.49586776859505</v>
       </c>
       <c r="K114">
-        <f>POWER(K$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>214.22314049586777</v>
       </c>
       <c r="L114">
-        <f>POWER(L$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>214.22314049586777</v>
       </c>
       <c r="M114">
-        <f>POWER(M$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>185.95041322314052</v>
       </c>
       <c r="N114">
-        <f>POWER(N$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>185.95041322314052</v>
       </c>
       <c r="O114">
-        <f>POWER(O$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="P114">
-        <f>POWER(P$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="Q114">
-        <f>POWER(Q$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="R114">
-        <f>POWER(R$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>159.67768595041323</v>
       </c>
       <c r="S114">
-        <f>POWER(S$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="T114">
-        <f>POWER(T$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="U114">
-        <f>POWER(U$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="V114">
-        <f>POWER(V$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="W114">
-        <f>POWER(W$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="X114">
-        <f>POWER(X$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="Y114">
-        <f>POWER(Y$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="Z114">
-        <f>POWER(Z$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="AA114">
-        <f>POWER(AA$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>135.40495867768595</v>
       </c>
       <c r="AB114">
-        <f>POWER(AB$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AC114">
-        <f>POWER(AC$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AD114">
-        <f>POWER(AD$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AE114">
-        <f>POWER(AE$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AF114">
-        <f>POWER(AF$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AG114">
-        <f>POWER(AG$2-$C103,2)</f>
+        <f t="shared" si="23"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AH114">
-        <f>POWER(AH$2-$C103,2)</f>
+        <f t="shared" ref="AH114:BM114" si="24">POWER(AH$2-$C103,2)</f>
         <v>113.13223140495869</v>
       </c>
       <c r="AI114">
-        <f>POWER(AI$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AJ114">
-        <f>POWER(AJ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AK114">
-        <f>POWER(AK$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AL114">
-        <f>POWER(AL$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AM114">
-        <f>POWER(AM$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>113.13223140495869</v>
       </c>
       <c r="AN114">
-        <f>POWER(AN$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AO114">
-        <f>POWER(AO$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AP114">
-        <f>POWER(AP$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AQ114">
-        <f>POWER(AQ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AR114">
-        <f>POWER(AR$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>92.859504132231407</v>
       </c>
       <c r="AS114">
-        <f>POWER(AS$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AT114">
-        <f>POWER(AT$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AU114">
-        <f>POWER(AU$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AV114">
-        <f>POWER(AV$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>74.586776859504141</v>
       </c>
       <c r="AW114">
-        <f>POWER(AW$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AX114">
-        <f>POWER(AX$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AY114">
-        <f>POWER(AY$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="AZ114">
-        <f>POWER(AZ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="BA114">
-        <f>POWER(BA$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>58.314049586776868</v>
       </c>
       <c r="BB114">
-        <f>POWER(BB$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BC114">
-        <f>POWER(BC$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BD114">
-        <f>POWER(BD$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BE114">
-        <f>POWER(BE$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BF114">
-        <f>POWER(BF$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BG114">
-        <f>POWER(BG$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BH114">
-        <f>POWER(BH$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BI114">
-        <f>POWER(BI$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>44.041322314049594</v>
       </c>
       <c r="BJ114">
-        <f>POWER(BJ$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BK114">
-        <f>POWER(BK$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BL114">
-        <f>POWER(BL$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>31.768595041322317</v>
       </c>
       <c r="BM114">
-        <f>POWER(BM$2-$C103,2)</f>
+        <f t="shared" si="24"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BN114">
-        <f>POWER(BN$2-$C103,2)</f>
+        <f t="shared" ref="BN114:CS114" si="25">POWER(BN$2-$C103,2)</f>
         <v>21.495867768595044</v>
       </c>
       <c r="BO114">
-        <f>POWER(BO$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BP114">
-        <f>POWER(BP$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BQ114">
-        <f>POWER(BQ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>21.495867768595044</v>
       </c>
       <c r="BR114">
-        <f>POWER(BR$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>13.223140495867771</v>
       </c>
       <c r="BS114">
-        <f>POWER(BS$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>13.223140495867771</v>
       </c>
       <c r="BT114">
-        <f>POWER(BT$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BU114">
-        <f>POWER(BU$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BV114">
-        <f>POWER(BV$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>6.9504132231404974</v>
       </c>
       <c r="BW114">
-        <f>POWER(BW$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>2.677685950413224</v>
       </c>
       <c r="BX114">
-        <f>POWER(BX$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>2.677685950413224</v>
       </c>
       <c r="BY114">
-        <f>POWER(BY$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="BZ114">
-        <f>POWER(BZ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="CA114">
-        <f>POWER(CA$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="CB114">
-        <f>POWER(CB$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CC114">
-        <f>POWER(CC$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CD114">
-        <f>POWER(CD$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="CE114">
-        <f>POWER(CE$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CF114">
-        <f>POWER(CF$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CG114">
-        <f>POWER(CG$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="CH114">
-        <f>POWER(CH$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CI114">
-        <f>POWER(CI$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CJ114">
-        <f>POWER(CJ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CK114">
-        <f>POWER(CK$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CL114">
-        <f>POWER(CL$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="CM114">
-        <f>POWER(CM$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CN114">
-        <f>POWER(CN$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CO114">
-        <f>POWER(CO$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>11.314049586776857</v>
       </c>
       <c r="CP114">
-        <f>POWER(CP$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CQ114">
-        <f>POWER(CQ$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CR114">
-        <f>POWER(CR$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CS114">
-        <f>POWER(CS$2-$C103,2)</f>
+        <f t="shared" si="25"/>
         <v>19.041322314049584</v>
       </c>
       <c r="CT114">
-        <f>POWER(CT$2-$C103,2)</f>
+        <f t="shared" ref="CT114:DP114" si="26">POWER(CT$2-$C103,2)</f>
         <v>28.76859504132231</v>
       </c>
       <c r="CU114">
-        <f>POWER(CU$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>28.76859504132231</v>
       </c>
       <c r="CV114">
-        <f>POWER(CV$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>28.76859504132231</v>
       </c>
       <c r="CW114">
-        <f>POWER(CW$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CX114">
-        <f>POWER(CX$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CY114">
-        <f>POWER(CY$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="CZ114">
-        <f>POWER(CZ$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>54.223140495867767</v>
       </c>
       <c r="DA114">
-        <f>POWER(DA$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>69.950413223140487</v>
       </c>
       <c r="DB114">
-        <f>POWER(DB$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>69.950413223140487</v>
       </c>
       <c r="DC114">
-        <f>POWER(DC$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DD114">
-        <f>POWER(DD$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DE114">
-        <f>POWER(DE$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>87.67768595041322</v>
       </c>
       <c r="DF114">
-        <f>POWER(DF$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DG114">
-        <f>POWER(DG$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DH114">
-        <f>POWER(DH$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DI114">
-        <f>POWER(DI$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>107.40495867768594</v>
       </c>
       <c r="DJ114">
-        <f>POWER(DJ$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DK114">
-        <f>POWER(DK$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DL114">
-        <f>POWER(DL$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>129.13223140495867</v>
       </c>
       <c r="DM114">
-        <f>POWER(DM$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DN114">
-        <f>POWER(DN$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DO114">
-        <f>POWER(DO$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>152.85950413223139</v>
       </c>
       <c r="DP114">
-        <f>POWER(DP$2-$C103,2)</f>
+        <f t="shared" si="26"/>
         <v>178.58677685950411</v>
       </c>
     </row>
     <row r="115" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B115">
-        <f>POWER(B$2-$C104,2)</f>
+        <f t="shared" ref="B115:AG115" si="27">POWER(B$2-$C104,2)</f>
         <v>498.77777777777771</v>
       </c>
       <c r="C115">
-        <f>POWER(C$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>455.11111111111109</v>
       </c>
       <c r="D115">
-        <f>POWER(D$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>455.11111111111109</v>
       </c>
       <c r="E115">
-        <f>POWER(E$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>413.4444444444444</v>
       </c>
       <c r="F115">
-        <f>POWER(F$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>413.4444444444444</v>
       </c>
       <c r="G115">
-        <f>POWER(G$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="H115">
-        <f>POWER(H$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="I115">
-        <f>POWER(I$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="J115">
-        <f>POWER(J$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>373.77777777777771</v>
       </c>
       <c r="K115">
-        <f>POWER(K$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>336.11111111111109</v>
       </c>
       <c r="L115">
-        <f>POWER(L$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>336.11111111111109</v>
       </c>
       <c r="M115">
-        <f>POWER(M$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>300.4444444444444</v>
       </c>
       <c r="N115">
-        <f>POWER(N$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>300.4444444444444</v>
       </c>
       <c r="O115">
-        <f>POWER(O$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="P115">
-        <f>POWER(P$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="Q115">
-        <f>POWER(Q$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="R115">
-        <f>POWER(R$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>266.77777777777771</v>
       </c>
       <c r="S115">
-        <f>POWER(S$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="T115">
-        <f>POWER(T$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="U115">
-        <f>POWER(U$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="V115">
-        <f>POWER(V$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="W115">
-        <f>POWER(W$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="X115">
-        <f>POWER(X$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="Y115">
-        <f>POWER(Y$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="Z115">
-        <f>POWER(Z$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="AA115">
-        <f>POWER(AA$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>235.11111111111109</v>
       </c>
       <c r="AB115">
-        <f>POWER(AB$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AC115">
-        <f>POWER(AC$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AD115">
-        <f>POWER(AD$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AE115">
-        <f>POWER(AE$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AF115">
-        <f>POWER(AF$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AG115">
-        <f>POWER(AG$2-$C104,2)</f>
+        <f t="shared" si="27"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AH115">
-        <f>POWER(AH$2-$C104,2)</f>
+        <f t="shared" ref="AH115:BM115" si="28">POWER(AH$2-$C104,2)</f>
         <v>205.4444444444444</v>
       </c>
       <c r="AI115">
-        <f>POWER(AI$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AJ115">
-        <f>POWER(AJ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AK115">
-        <f>POWER(AK$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AL115">
-        <f>POWER(AL$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AM115">
-        <f>POWER(AM$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>205.4444444444444</v>
       </c>
       <c r="AN115">
-        <f>POWER(AN$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AO115">
-        <f>POWER(AO$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AP115">
-        <f>POWER(AP$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AQ115">
-        <f>POWER(AQ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AR115">
-        <f>POWER(AR$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>177.77777777777774</v>
       </c>
       <c r="AS115">
-        <f>POWER(AS$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AT115">
-        <f>POWER(AT$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AU115">
-        <f>POWER(AU$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AV115">
-        <f>POWER(AV$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>152.11111111111109</v>
       </c>
       <c r="AW115">
-        <f>POWER(AW$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AX115">
-        <f>POWER(AX$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AY115">
-        <f>POWER(AY$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="AZ115">
-        <f>POWER(AZ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="BA115">
-        <f>POWER(BA$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>128.44444444444443</v>
       </c>
       <c r="BB115">
-        <f>POWER(BB$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BC115">
-        <f>POWER(BC$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BD115">
-        <f>POWER(BD$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BE115">
-        <f>POWER(BE$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BF115">
-        <f>POWER(BF$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BG115">
-        <f>POWER(BG$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BH115">
-        <f>POWER(BH$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BI115">
-        <f>POWER(BI$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>106.77777777777776</v>
       </c>
       <c r="BJ115">
-        <f>POWER(BJ$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BK115">
-        <f>POWER(BK$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BL115">
-        <f>POWER(BL$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>87.111111111111086</v>
       </c>
       <c r="BM115">
-        <f>POWER(BM$2-$C104,2)</f>
+        <f t="shared" si="28"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BN115">
-        <f>POWER(BN$2-$C104,2)</f>
+        <f t="shared" ref="BN115:CS115" si="29">POWER(BN$2-$C104,2)</f>
         <v>69.444444444444429</v>
       </c>
       <c r="BO115">
-        <f>POWER(BO$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BP115">
-        <f>POWER(BP$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BQ115">
-        <f>POWER(BQ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>69.444444444444429</v>
       </c>
       <c r="BR115">
-        <f>POWER(BR$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>53.777777777777757</v>
       </c>
       <c r="BS115">
-        <f>POWER(BS$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>53.777777777777757</v>
       </c>
       <c r="BT115">
-        <f>POWER(BT$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BU115">
-        <f>POWER(BU$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BV115">
-        <f>POWER(BV$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>40.111111111111093</v>
       </c>
       <c r="BW115">
-        <f>POWER(BW$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>28.444444444444432</v>
       </c>
       <c r="BX115">
-        <f>POWER(BX$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>28.444444444444432</v>
       </c>
       <c r="BY115">
-        <f>POWER(BY$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="BZ115">
-        <f>POWER(BZ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="CA115">
-        <f>POWER(CA$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>18.777777777777768</v>
       </c>
       <c r="CB115">
-        <f>POWER(CB$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CC115">
-        <f>POWER(CC$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CD115">
-        <f>POWER(CD$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>11.111111111111104</v>
       </c>
       <c r="CE115">
-        <f>POWER(CE$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CF115">
-        <f>POWER(CF$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CG115">
-        <f>POWER(CG$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>5.4444444444444393</v>
       </c>
       <c r="CH115">
-        <f>POWER(CH$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CI115">
-        <f>POWER(CI$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CJ115">
-        <f>POWER(CJ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CK115">
-        <f>POWER(CK$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CL115">
-        <f>POWER(CL$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>1.7777777777777746</v>
       </c>
       <c r="CM115">
-        <f>POWER(CM$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CN115">
-        <f>POWER(CN$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CO115">
-        <f>POWER(CO$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.11111111111111033</v>
       </c>
       <c r="CP115">
-        <f>POWER(CP$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CQ115">
-        <f>POWER(CQ$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CR115">
-        <f>POWER(CR$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CS115">
-        <f>POWER(CS$2-$C104,2)</f>
+        <f t="shared" si="29"/>
         <v>0.44444444444444603</v>
       </c>
       <c r="CT115">
-        <f>POWER(CT$2-$C104,2)</f>
+        <f t="shared" ref="CT115:DP115" si="30">POWER(CT$2-$C104,2)</f>
         <v>2.7777777777777817</v>
       </c>
       <c r="CU115">
-        <f>POWER(CU$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>2.7777777777777817</v>
       </c>
       <c r="CV115">
-        <f>POWER(CV$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>2.7777777777777817</v>
       </c>
       <c r="CW115">
-        <f>POWER(CW$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CX115">
-        <f>POWER(CX$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CY115">
-        <f>POWER(CY$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="CZ115">
-        <f>POWER(CZ$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>13.444444444444454</v>
       </c>
       <c r="DA115">
-        <f>POWER(DA$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>21.777777777777789</v>
       </c>
       <c r="DB115">
-        <f>POWER(DB$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>21.777777777777789</v>
       </c>
       <c r="DC115">
-        <f>POWER(DC$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DD115">
-        <f>POWER(DD$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DE115">
-        <f>POWER(DE$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>32.111111111111121</v>
       </c>
       <c r="DF115">
-        <f>POWER(DF$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DG115">
-        <f>POWER(DG$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DH115">
-        <f>POWER(DH$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DI115">
-        <f>POWER(DI$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>44.444444444444457</v>
       </c>
       <c r="DJ115">
-        <f>POWER(DJ$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DK115">
-        <f>POWER(DK$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DL115">
-        <f>POWER(DL$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>58.777777777777793</v>
       </c>
       <c r="DM115">
-        <f>POWER(DM$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DN115">
-        <f>POWER(DN$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DO115">
-        <f>POWER(DO$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>75.111111111111128</v>
       </c>
       <c r="DP115">
-        <f>POWER(DP$2-$C104,2)</f>
+        <f t="shared" si="30"/>
         <v>93.444444444444471</v>
       </c>
     </row>
     <row r="116" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B116">
-        <f>POWER(B$2-$C105,2)</f>
+        <f t="shared" ref="B116:AG116" si="31">POWER(B$2-$C105,2)</f>
         <v>723.01234567901236</v>
       </c>
       <c r="C116">
-        <f>POWER(C$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>670.23456790123464</v>
       </c>
       <c r="D116">
-        <f>POWER(D$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>670.23456790123464</v>
       </c>
       <c r="E116">
-        <f>POWER(E$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>619.45679012345681</v>
       </c>
       <c r="F116">
-        <f>POWER(F$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>619.45679012345681</v>
       </c>
       <c r="G116">
-        <f>POWER(G$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="H116">
-        <f>POWER(H$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="I116">
-        <f>POWER(I$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="J116">
-        <f>POWER(J$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>570.67901234567898</v>
       </c>
       <c r="K116">
-        <f>POWER(K$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>523.90123456790127</v>
       </c>
       <c r="L116">
-        <f>POWER(L$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>523.90123456790127</v>
       </c>
       <c r="M116">
-        <f>POWER(M$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>479.1234567901235</v>
       </c>
       <c r="N116">
-        <f>POWER(N$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>479.1234567901235</v>
       </c>
       <c r="O116">
-        <f>POWER(O$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="P116">
-        <f>POWER(P$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="Q116">
-        <f>POWER(Q$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="R116">
-        <f>POWER(R$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>436.34567901234567</v>
       </c>
       <c r="S116">
-        <f>POWER(S$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="T116">
-        <f>POWER(T$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="U116">
-        <f>POWER(U$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="V116">
-        <f>POWER(V$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="W116">
-        <f>POWER(W$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="X116">
-        <f>POWER(X$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="Y116">
-        <f>POWER(Y$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="Z116">
-        <f>POWER(Z$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="AA116">
-        <f>POWER(AA$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>395.5679012345679</v>
       </c>
       <c r="AB116">
-        <f>POWER(AB$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AC116">
-        <f>POWER(AC$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AD116">
-        <f>POWER(AD$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AE116">
-        <f>POWER(AE$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AF116">
-        <f>POWER(AF$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AG116">
-        <f>POWER(AG$2-$C105,2)</f>
+        <f t="shared" si="31"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AH116">
-        <f>POWER(AH$2-$C105,2)</f>
+        <f t="shared" ref="AH116:BM116" si="32">POWER(AH$2-$C105,2)</f>
         <v>356.79012345679013</v>
       </c>
       <c r="AI116">
-        <f>POWER(AI$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AJ116">
-        <f>POWER(AJ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AK116">
-        <f>POWER(AK$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AL116">
-        <f>POWER(AL$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AM116">
-        <f>POWER(AM$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>356.79012345679013</v>
       </c>
       <c r="AN116">
-        <f>POWER(AN$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AO116">
-        <f>POWER(AO$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AP116">
-        <f>POWER(AP$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AQ116">
-        <f>POWER(AQ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AR116">
-        <f>POWER(AR$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>320.01234567901236</v>
       </c>
       <c r="AS116">
-        <f>POWER(AS$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AT116">
-        <f>POWER(AT$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AU116">
-        <f>POWER(AU$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AV116">
-        <f>POWER(AV$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>285.23456790123458</v>
       </c>
       <c r="AW116">
-        <f>POWER(AW$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AX116">
-        <f>POWER(AX$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AY116">
-        <f>POWER(AY$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="AZ116">
-        <f>POWER(AZ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="BA116">
-        <f>POWER(BA$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>252.45679012345681</v>
       </c>
       <c r="BB116">
-        <f>POWER(BB$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BC116">
-        <f>POWER(BC$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BD116">
-        <f>POWER(BD$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BE116">
-        <f>POWER(BE$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BF116">
-        <f>POWER(BF$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BG116">
-        <f>POWER(BG$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BH116">
-        <f>POWER(BH$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BI116">
-        <f>POWER(BI$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>221.67901234567901</v>
       </c>
       <c r="BJ116">
-        <f>POWER(BJ$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BK116">
-        <f>POWER(BK$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BL116">
-        <f>POWER(BL$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>192.90123456790124</v>
       </c>
       <c r="BM116">
-        <f>POWER(BM$2-$C105,2)</f>
+        <f t="shared" si="32"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BN116">
-        <f>POWER(BN$2-$C105,2)</f>
+        <f t="shared" ref="BN116:CS116" si="33">POWER(BN$2-$C105,2)</f>
         <v>166.12345679012347</v>
       </c>
       <c r="BO116">
-        <f>POWER(BO$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BP116">
-        <f>POWER(BP$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BQ116">
-        <f>POWER(BQ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>166.12345679012347</v>
       </c>
       <c r="BR116">
-        <f>POWER(BR$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>141.3456790123457</v>
       </c>
       <c r="BS116">
-        <f>POWER(BS$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>141.3456790123457</v>
       </c>
       <c r="BT116">
-        <f>POWER(BT$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BU116">
-        <f>POWER(BU$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BV116">
-        <f>POWER(BV$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>118.56790123456791</v>
       </c>
       <c r="BW116">
-        <f>POWER(BW$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>97.790123456790127</v>
       </c>
       <c r="BX116">
-        <f>POWER(BX$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>97.790123456790127</v>
       </c>
       <c r="BY116">
-        <f>POWER(BY$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="BZ116">
-        <f>POWER(BZ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="CA116">
-        <f>POWER(CA$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>79.012345679012356</v>
       </c>
       <c r="CB116">
-        <f>POWER(CB$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CC116">
-        <f>POWER(CC$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CD116">
-        <f>POWER(CD$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>62.234567901234577</v>
       </c>
       <c r="CE116">
-        <f>POWER(CE$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CF116">
-        <f>POWER(CF$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CG116">
-        <f>POWER(CG$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>47.456790123456798</v>
       </c>
       <c r="CH116">
-        <f>POWER(CH$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CI116">
-        <f>POWER(CI$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CJ116">
-        <f>POWER(CJ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CK116">
-        <f>POWER(CK$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CL116">
-        <f>POWER(CL$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>34.67901234567902</v>
       </c>
       <c r="CM116">
-        <f>POWER(CM$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CN116">
-        <f>POWER(CN$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CO116">
-        <f>POWER(CO$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>23.901234567901238</v>
       </c>
       <c r="CP116">
-        <f>POWER(CP$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CQ116">
-        <f>POWER(CQ$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CR116">
-        <f>POWER(CR$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CS116">
-        <f>POWER(CS$2-$C105,2)</f>
+        <f t="shared" si="33"/>
         <v>15.123456790123459</v>
       </c>
       <c r="CT116">
-        <f>POWER(CT$2-$C105,2)</f>
+        <f t="shared" ref="CT116:DP116" si="34">POWER(CT$2-$C105,2)</f>
         <v>8.3456790123456805</v>
       </c>
       <c r="CU116">
-        <f>POWER(CU$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>8.3456790123456805</v>
       </c>
       <c r="CV116">
-        <f>POWER(CV$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>8.3456790123456805</v>
       </c>
       <c r="CW116">
-        <f>POWER(CW$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CX116">
-        <f>POWER(CX$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CY116">
-        <f>POWER(CY$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="CZ116">
-        <f>POWER(CZ$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>0.79012345679012419</v>
       </c>
       <c r="DA116">
-        <f>POWER(DA$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345592E-2</v>
       </c>
       <c r="DB116">
-        <f>POWER(DB$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345592E-2</v>
       </c>
       <c r="DC116">
-        <f>POWER(DC$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DD116">
-        <f>POWER(DD$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DE116">
-        <f>POWER(DE$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>1.2345679012345669</v>
       </c>
       <c r="DF116">
-        <f>POWER(DF$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DG116">
-        <f>POWER(DG$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DH116">
-        <f>POWER(DH$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DI116">
-        <f>POWER(DI$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>4.4567901234567886</v>
       </c>
       <c r="DJ116">
-        <f>POWER(DJ$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DK116">
-        <f>POWER(DK$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DL116">
-        <f>POWER(DL$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>9.6790123456790091</v>
       </c>
       <c r="DM116">
-        <f>POWER(DM$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DN116">
-        <f>POWER(DN$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DO116">
-        <f>POWER(DO$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>16.901234567901231</v>
       </c>
       <c r="DP116">
-        <f>POWER(DP$2-$C105,2)</f>
+        <f t="shared" si="34"/>
         <v>26.123456790123452</v>
       </c>
     </row>
     <row r="117" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B117">
-        <f>POWER(B$2-$C106,2)</f>
+        <f t="shared" ref="B117:AG117" si="35">POWER(B$2-$C106,2)</f>
         <v>905.46280991735534</v>
       </c>
       <c r="C117">
-        <f>POWER(C$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>846.2809917355371</v>
       </c>
       <c r="D117">
-        <f>POWER(D$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>846.2809917355371</v>
       </c>
       <c r="E117">
-        <f>POWER(E$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>789.09917355371897</v>
       </c>
       <c r="F117">
-        <f>POWER(F$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>789.09917355371897</v>
       </c>
       <c r="G117">
-        <f>POWER(G$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="H117">
-        <f>POWER(H$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="I117">
-        <f>POWER(I$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="J117">
-        <f>POWER(J$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>733.91735537190073</v>
       </c>
       <c r="K117">
-        <f>POWER(K$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>680.7355371900826</v>
       </c>
       <c r="L117">
-        <f>POWER(L$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>680.7355371900826</v>
       </c>
       <c r="M117">
-        <f>POWER(M$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>629.55371900826447</v>
       </c>
       <c r="N117">
-        <f>POWER(N$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>629.55371900826447</v>
       </c>
       <c r="O117">
-        <f>POWER(O$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="P117">
-        <f>POWER(P$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="Q117">
-        <f>POWER(Q$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="R117">
-        <f>POWER(R$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>580.37190082644622</v>
       </c>
       <c r="S117">
-        <f>POWER(S$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="T117">
-        <f>POWER(T$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="U117">
-        <f>POWER(U$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="V117">
-        <f>POWER(V$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="W117">
-        <f>POWER(W$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="X117">
-        <f>POWER(X$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="Y117">
-        <f>POWER(Y$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="Z117">
-        <f>POWER(Z$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="AA117">
-        <f>POWER(AA$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>533.19008264462809</v>
       </c>
       <c r="AB117">
-        <f>POWER(AB$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AC117">
-        <f>POWER(AC$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AD117">
-        <f>POWER(AD$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AE117">
-        <f>POWER(AE$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AF117">
-        <f>POWER(AF$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AG117">
-        <f>POWER(AG$2-$C106,2)</f>
+        <f t="shared" si="35"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AH117">
-        <f>POWER(AH$2-$C106,2)</f>
+        <f t="shared" ref="AH117:BM117" si="36">POWER(AH$2-$C106,2)</f>
         <v>488.00826446280985</v>
       </c>
       <c r="AI117">
-        <f>POWER(AI$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AJ117">
-        <f>POWER(AJ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AK117">
-        <f>POWER(AK$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AL117">
-        <f>POWER(AL$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AM117">
-        <f>POWER(AM$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>488.00826446280985</v>
       </c>
       <c r="AN117">
-        <f>POWER(AN$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AO117">
-        <f>POWER(AO$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AP117">
-        <f>POWER(AP$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AQ117">
-        <f>POWER(AQ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AR117">
-        <f>POWER(AR$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>444.82644628099172</v>
       </c>
       <c r="AS117">
-        <f>POWER(AS$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AT117">
-        <f>POWER(AT$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AU117">
-        <f>POWER(AU$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AV117">
-        <f>POWER(AV$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>403.64462809917353</v>
       </c>
       <c r="AW117">
-        <f>POWER(AW$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AX117">
-        <f>POWER(AX$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AY117">
-        <f>POWER(AY$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="AZ117">
-        <f>POWER(AZ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="BA117">
-        <f>POWER(BA$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>364.46280991735534</v>
       </c>
       <c r="BB117">
-        <f>POWER(BB$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BC117">
-        <f>POWER(BC$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BD117">
-        <f>POWER(BD$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BE117">
-        <f>POWER(BE$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BF117">
-        <f>POWER(BF$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BG117">
-        <f>POWER(BG$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BH117">
-        <f>POWER(BH$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BI117">
-        <f>POWER(BI$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>327.28099173553716</v>
       </c>
       <c r="BJ117">
-        <f>POWER(BJ$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BK117">
-        <f>POWER(BK$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BL117">
-        <f>POWER(BL$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>292.09917355371897</v>
       </c>
       <c r="BM117">
-        <f>POWER(BM$2-$C106,2)</f>
+        <f t="shared" si="36"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BN117">
-        <f>POWER(BN$2-$C106,2)</f>
+        <f t="shared" ref="BN117:CS117" si="37">POWER(BN$2-$C106,2)</f>
         <v>258.91735537190078</v>
       </c>
       <c r="BO117">
-        <f>POWER(BO$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BP117">
-        <f>POWER(BP$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BQ117">
-        <f>POWER(BQ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>258.91735537190078</v>
       </c>
       <c r="BR117">
-        <f>POWER(BR$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>227.73553719008262</v>
       </c>
       <c r="BS117">
-        <f>POWER(BS$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>227.73553719008262</v>
       </c>
       <c r="BT117">
-        <f>POWER(BT$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BU117">
-        <f>POWER(BU$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BV117">
-        <f>POWER(BV$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>198.55371900826444</v>
       </c>
       <c r="BW117">
-        <f>POWER(BW$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>171.37190082644625</v>
       </c>
       <c r="BX117">
-        <f>POWER(BX$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>171.37190082644625</v>
       </c>
       <c r="BY117">
-        <f>POWER(BY$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="BZ117">
-        <f>POWER(BZ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="CA117">
-        <f>POWER(CA$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>146.19008264462806</v>
       </c>
       <c r="CB117">
-        <f>POWER(CB$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CC117">
-        <f>POWER(CC$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CD117">
-        <f>POWER(CD$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>123.00826446280989</v>
       </c>
       <c r="CE117">
-        <f>POWER(CE$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CF117">
-        <f>POWER(CF$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CG117">
-        <f>POWER(CG$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>101.82644628099172</v>
       </c>
       <c r="CH117">
-        <f>POWER(CH$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CI117">
-        <f>POWER(CI$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CJ117">
-        <f>POWER(CJ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CK117">
-        <f>POWER(CK$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CL117">
-        <f>POWER(CL$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>82.644628099173531</v>
       </c>
       <c r="CM117">
-        <f>POWER(CM$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CN117">
-        <f>POWER(CN$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CO117">
-        <f>POWER(CO$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>65.462809917355358</v>
       </c>
       <c r="CP117">
-        <f>POWER(CP$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CQ117">
-        <f>POWER(CQ$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CR117">
-        <f>POWER(CR$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CS117">
-        <f>POWER(CS$2-$C106,2)</f>
+        <f t="shared" si="37"/>
         <v>50.280991735537178</v>
       </c>
       <c r="CT117">
-        <f>POWER(CT$2-$C106,2)</f>
+        <f t="shared" ref="CT117:DP117" si="38">POWER(CT$2-$C106,2)</f>
         <v>37.099173553718998</v>
       </c>
       <c r="CU117">
-        <f>POWER(CU$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>37.099173553718998</v>
       </c>
       <c r="CV117">
-        <f>POWER(CV$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>37.099173553718998</v>
       </c>
       <c r="CW117">
-        <f>POWER(CW$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CX117">
-        <f>POWER(CX$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CY117">
-        <f>POWER(CY$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="CZ117">
-        <f>POWER(CZ$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>16.735537190082638</v>
       </c>
       <c r="DA117">
-        <f>POWER(DA$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>9.5537190082644567</v>
       </c>
       <c r="DB117">
-        <f>POWER(DB$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>9.5537190082644567</v>
       </c>
       <c r="DC117">
-        <f>POWER(DC$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DD117">
-        <f>POWER(DD$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DE117">
-        <f>POWER(DE$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>4.3719008264462769</v>
       </c>
       <c r="DF117">
-        <f>POWER(DF$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DG117">
-        <f>POWER(DG$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DH117">
-        <f>POWER(DH$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DI117">
-        <f>POWER(DI$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>1.190082644628097</v>
       </c>
       <c r="DJ117">
-        <f>POWER(DJ$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DK117">
-        <f>POWER(DK$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DL117">
-        <f>POWER(DL$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>8.2644628099171787E-3</v>
       </c>
       <c r="DM117">
-        <f>POWER(DM$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DN117">
-        <f>POWER(DN$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DO117">
-        <f>POWER(DO$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>0.82644628099173734</v>
       </c>
       <c r="DP117">
-        <f>POWER(DP$2-$C106,2)</f>
+        <f t="shared" si="38"/>
         <v>3.6446280991735573</v>
       </c>
     </row>
     <row r="118" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118">
-        <f>POWER(B$2-$C107,2)</f>
+        <f t="shared" ref="B118:AG118" si="39">POWER(B$2-$C107,2)</f>
         <v>217.50052962361411</v>
       </c>
       <c r="C118">
-        <f>POWER(C$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>189.00473130428639</v>
       </c>
       <c r="D118">
-        <f>POWER(D$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>189.00473130428639</v>
       </c>
       <c r="E118">
-        <f>POWER(E$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>162.50893298495868</v>
       </c>
       <c r="F118">
-        <f>POWER(F$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>162.50893298495868</v>
       </c>
       <c r="G118">
-        <f>POWER(G$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="H118">
-        <f>POWER(H$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="I118">
-        <f>POWER(I$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="J118">
-        <f>POWER(J$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>138.01313466563093</v>
       </c>
       <c r="K118">
-        <f>POWER(K$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>115.51733634630321</v>
       </c>
       <c r="L118">
-        <f>POWER(L$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>115.51733634630321</v>
       </c>
       <c r="M118">
-        <f>POWER(M$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>95.021538026975477</v>
       </c>
       <c r="N118">
-        <f>POWER(N$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>95.021538026975477</v>
       </c>
       <c r="O118">
-        <f>POWER(O$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="P118">
-        <f>POWER(P$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="Q118">
-        <f>POWER(Q$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="R118">
-        <f>POWER(R$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>76.525739707647745</v>
       </c>
       <c r="S118">
-        <f>POWER(S$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="T118">
-        <f>POWER(T$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="U118">
-        <f>POWER(U$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="V118">
-        <f>POWER(V$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="W118">
-        <f>POWER(W$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="X118">
-        <f>POWER(X$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="Y118">
-        <f>POWER(Y$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="Z118">
-        <f>POWER(Z$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="AA118">
-        <f>POWER(AA$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>60.029941388320019</v>
       </c>
       <c r="AB118">
-        <f>POWER(AB$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AC118">
-        <f>POWER(AC$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AD118">
-        <f>POWER(AD$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AE118">
-        <f>POWER(AE$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AF118">
-        <f>POWER(AF$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AG118">
-        <f>POWER(AG$2-$C107,2)</f>
+        <f t="shared" si="39"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AH118">
-        <f>POWER(AH$2-$C107,2)</f>
+        <f t="shared" ref="AH118:BM118" si="40">POWER(AH$2-$C107,2)</f>
         <v>45.534143068992293</v>
       </c>
       <c r="AI118">
-        <f>POWER(AI$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AJ118">
-        <f>POWER(AJ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AK118">
-        <f>POWER(AK$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AL118">
-        <f>POWER(AL$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AM118">
-        <f>POWER(AM$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>45.534143068992293</v>
       </c>
       <c r="AN118">
-        <f>POWER(AN$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AO118">
-        <f>POWER(AO$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AP118">
-        <f>POWER(AP$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AQ118">
-        <f>POWER(AQ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AR118">
-        <f>POWER(AR$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>33.03834474966456</v>
       </c>
       <c r="AS118">
-        <f>POWER(AS$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AT118">
-        <f>POWER(AT$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AU118">
-        <f>POWER(AU$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AV118">
-        <f>POWER(AV$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>22.542546430336831</v>
       </c>
       <c r="AW118">
-        <f>POWER(AW$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AX118">
-        <f>POWER(AX$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AY118">
-        <f>POWER(AY$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="AZ118">
-        <f>POWER(AZ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="BA118">
-        <f>POWER(BA$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>14.046748111009103</v>
       </c>
       <c r="BB118">
-        <f>POWER(BB$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BC118">
-        <f>POWER(BC$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BD118">
-        <f>POWER(BD$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BE118">
-        <f>POWER(BE$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BF118">
-        <f>POWER(BF$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BG118">
-        <f>POWER(BG$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BH118">
-        <f>POWER(BH$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BI118">
-        <f>POWER(BI$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>7.5509497916813739</v>
       </c>
       <c r="BJ118">
-        <f>POWER(BJ$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BK118">
-        <f>POWER(BK$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BL118">
-        <f>POWER(BL$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>3.0551514723536441</v>
       </c>
       <c r="BM118">
-        <f>POWER(BM$2-$C107,2)</f>
+        <f t="shared" si="40"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BN118">
-        <f>POWER(BN$2-$C107,2)</f>
+        <f t="shared" ref="BN118:CS118" si="41">POWER(BN$2-$C107,2)</f>
         <v>0.55935315302591493</v>
       </c>
       <c r="BO118">
-        <f>POWER(BO$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BP118">
-        <f>POWER(BP$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BQ118">
-        <f>POWER(BQ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>0.55935315302591493</v>
       </c>
       <c r="BR118">
-        <f>POWER(BR$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>6.3554833698185598E-2</v>
       </c>
       <c r="BS118">
-        <f>POWER(BS$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>6.3554833698185598E-2</v>
       </c>
       <c r="BT118">
-        <f>POWER(BT$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BU118">
-        <f>POWER(BU$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BV118">
-        <f>POWER(BV$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>1.5677565143704564</v>
       </c>
       <c r="BW118">
-        <f>POWER(BW$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>5.0719581950427273</v>
       </c>
       <c r="BX118">
-        <f>POWER(BX$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>5.0719581950427273</v>
       </c>
       <c r="BY118">
-        <f>POWER(BY$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="BZ118">
-        <f>POWER(BZ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="CA118">
-        <f>POWER(CA$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>10.576159875714998</v>
       </c>
       <c r="CB118">
-        <f>POWER(CB$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CC118">
-        <f>POWER(CC$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CD118">
-        <f>POWER(CD$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>18.080361556387267</v>
       </c>
       <c r="CE118">
-        <f>POWER(CE$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CF118">
-        <f>POWER(CF$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CG118">
-        <f>POWER(CG$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>27.584563237059537</v>
       </c>
       <c r="CH118">
-        <f>POWER(CH$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CI118">
-        <f>POWER(CI$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CJ118">
-        <f>POWER(CJ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CK118">
-        <f>POWER(CK$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CL118">
-        <f>POWER(CL$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>39.088764917731808</v>
       </c>
       <c r="CM118">
-        <f>POWER(CM$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CN118">
-        <f>POWER(CN$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CO118">
-        <f>POWER(CO$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>52.592966598404082</v>
       </c>
       <c r="CP118">
-        <f>POWER(CP$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CQ118">
-        <f>POWER(CQ$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CR118">
-        <f>POWER(CR$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CS118">
-        <f>POWER(CS$2-$C107,2)</f>
+        <f t="shared" si="41"/>
         <v>68.097168279076357</v>
       </c>
       <c r="CT118">
-        <f>POWER(CT$2-$C107,2)</f>
+        <f t="shared" ref="CT118:DP118" si="42">POWER(CT$2-$C107,2)</f>
         <v>85.601369959748624</v>
       </c>
       <c r="CU118">
-        <f>POWER(CU$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>85.601369959748624</v>
       </c>
       <c r="CV118">
-        <f>POWER(CV$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>85.601369959748624</v>
       </c>
       <c r="CW118">
-        <f>POWER(CW$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CX118">
-        <f>POWER(CX$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CY118">
-        <f>POWER(CY$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="CZ118">
-        <f>POWER(CZ$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>126.60977332109316</v>
       </c>
       <c r="DA118">
-        <f>POWER(DA$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>150.11397500176543</v>
       </c>
       <c r="DB118">
-        <f>POWER(DB$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>150.11397500176543</v>
       </c>
       <c r="DC118">
-        <f>POWER(DC$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DD118">
-        <f>POWER(DD$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DE118">
-        <f>POWER(DE$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>175.61817668243771</v>
       </c>
       <c r="DF118">
-        <f>POWER(DF$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DG118">
-        <f>POWER(DG$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DH118">
-        <f>POWER(DH$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DI118">
-        <f>POWER(DI$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>203.12237836310999</v>
       </c>
       <c r="DJ118">
-        <f>POWER(DJ$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DK118">
-        <f>POWER(DK$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DL118">
-        <f>POWER(DL$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>232.62658004378224</v>
       </c>
       <c r="DM118">
-        <f>POWER(DM$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DN118">
-        <f>POWER(DN$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DO118">
-        <f>POWER(DO$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>264.13078172445444</v>
       </c>
       <c r="DP118">
-        <f>POWER(DP$2-$C107,2)</f>
+        <f t="shared" si="42"/>
         <v>297.63498340512672</v>
       </c>
     </row>
     <row r="121" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="36"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="57"/>
     </row>
     <row r="122" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
@@ -20766,302 +20771,302 @@
       <c r="F122" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40">
-        <f>POWER(D123-F123,2)/F123</f>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23">
+        <f t="shared" ref="J122:J129" si="43">POWER(D123-F123,2)/F123</f>
         <v>1.0519982835096353</v>
       </c>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
-      <c r="M122" s="40"/>
-      <c r="N122" s="40"/>
-      <c r="O122" s="40"/>
-      <c r="P122" s="40"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
     </row>
     <row r="123" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B123" s="41">
-        <f>F17</f>
+      <c r="B123" s="24">
+        <f t="shared" ref="B123:B130" si="44">F17</f>
         <v>-3.9733924171747472</v>
       </c>
       <c r="C123" s="2">
-        <f>($B$74-B123)/$B$79</f>
+        <f t="shared" ref="C123:C130" si="45">($B$74-B123)/$B$79</f>
         <v>1.4310185209494046</v>
       </c>
       <c r="D123" s="2">
-        <f>D17</f>
+        <f t="shared" ref="D123:D130" si="46">D17</f>
         <v>11</v>
       </c>
       <c r="E123" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C123, 2)/2)</f>
+        <f t="shared" ref="E123:E130" si="47">1/SQRT(2*PI())*EXP(-POWER(C123, 2)/2)</f>
         <v>0.14329561613217703</v>
       </c>
       <c r="F123" s="2">
-        <f>$B$3*$B$10*E123/$B$79</f>
+        <f t="shared" ref="F123:F130" si="48">$B$3*$B$10*E123/$B$79</f>
         <v>8.0838114339543274</v>
       </c>
-      <c r="G123" s="42"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="40">
-        <f>POWER(D124-F124,2)/F124</f>
+      <c r="G123" s="25"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23">
+        <f t="shared" si="43"/>
         <v>11.218781823789298</v>
       </c>
-      <c r="K123" s="40"/>
-      <c r="L123" s="40"/>
-      <c r="M123" s="40"/>
-      <c r="N123" s="40"/>
-      <c r="O123" s="40"/>
-      <c r="P123" s="40"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="23"/>
+      <c r="P123" s="23"/>
     </row>
     <row r="124" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B124" s="41">
-        <f>F18</f>
+      <c r="B124" s="24">
+        <f t="shared" si="44"/>
         <v>7.9822748475758321E-2</v>
       </c>
       <c r="C124" s="2">
-        <f>($B$74-B124)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>0.95064841095510522</v>
       </c>
       <c r="D124" s="2">
-        <f>D18</f>
+        <f t="shared" si="46"/>
         <v>27</v>
       </c>
       <c r="E124" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C124, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.25390255334323364</v>
       </c>
       <c r="F124" s="2">
-        <f>$B$3*$B$10*E124/$B$79</f>
+        <f t="shared" si="48"/>
         <v>14.323539123018165</v>
       </c>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40">
-        <f>POWER(D125-F125,2)/F125</f>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23">
+        <f t="shared" si="43"/>
         <v>0.16990782043176919</v>
       </c>
-      <c r="K124" s="40"/>
-      <c r="L124" s="40"/>
-      <c r="M124" s="40"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
-      <c r="P124" s="40"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="23"/>
+      <c r="P124" s="23"/>
     </row>
     <row r="125" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B125" s="41">
-        <f>F19</f>
+      <c r="B125" s="24">
+        <f t="shared" si="44"/>
         <v>4.1330379141262643</v>
       </c>
       <c r="C125" s="2">
-        <f>($B$74-B125)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>0.4702783009608057</v>
       </c>
       <c r="D125" s="2">
-        <f>D19</f>
+        <f t="shared" si="46"/>
         <v>22</v>
       </c>
       <c r="E125" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C125, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.35717858885847942</v>
       </c>
       <c r="F125" s="2">
-        <f>$B$3*$B$10*E125/$B$79</f>
+        <f t="shared" si="48"/>
         <v>20.149704774740069</v>
       </c>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40">
-        <f>POWER(D126-F126,2)/F126</f>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23">
+        <f t="shared" si="43"/>
         <v>4.0141731512601426</v>
       </c>
-      <c r="K125" s="40"/>
-      <c r="L125" s="40"/>
-      <c r="M125" s="40"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
-      <c r="P125" s="40"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="23"/>
     </row>
     <row r="126" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B126" s="41">
-        <f>F20</f>
+      <c r="B126" s="24">
+        <f t="shared" si="44"/>
         <v>8.186253079776769</v>
       </c>
       <c r="C126" s="2">
-        <f>($B$74-B126)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>-1.009180903349364E-2</v>
       </c>
       <c r="D126" s="2">
-        <f>D20</f>
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="E126" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C126, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.39892196585827489</v>
       </c>
       <c r="F126" s="2">
-        <f>$B$3*$B$10*E126/$B$79</f>
+        <f t="shared" si="48"/>
         <v>22.504595994660921</v>
       </c>
-      <c r="I126" s="40"/>
-      <c r="J126" s="40">
-        <f>POWER(D127-F127,2)/F127</f>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23">
+        <f t="shared" si="43"/>
         <v>4.0188417292333867</v>
       </c>
-      <c r="K126" s="40"/>
-      <c r="L126" s="40"/>
-      <c r="M126" s="40"/>
-      <c r="N126" s="40"/>
-      <c r="O126" s="40"/>
-      <c r="P126" s="40"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="23"/>
+      <c r="O126" s="23"/>
+      <c r="P126" s="23"/>
     </row>
     <row r="127" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B127" s="41">
-        <f>F21</f>
+      <c r="B127" s="24">
+        <f t="shared" si="44"/>
         <v>12.239468245427275</v>
       </c>
       <c r="C127" s="2">
-        <f>($B$74-B127)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>-0.49046191902779318</v>
       </c>
       <c r="D127" s="2">
-        <f>D21</f>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="E127" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C127, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.35373225981576623</v>
       </c>
       <c r="F127" s="2">
-        <f>$B$3*$B$10*E127/$B$79</f>
+        <f t="shared" si="48"/>
         <v>19.955285190438509</v>
       </c>
-      <c r="I127" s="40"/>
-      <c r="J127" s="40">
-        <f>POWER(D128-F128,2)/F128</f>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23">
+        <f t="shared" si="43"/>
         <v>6.444981079166448E-2</v>
       </c>
-      <c r="K127" s="40"/>
-      <c r="L127" s="40"/>
-      <c r="M127" s="40"/>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
-      <c r="P127" s="40"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="23"/>
     </row>
     <row r="128" spans="2:120" x14ac:dyDescent="0.25">
-      <c r="B128" s="41">
-        <f>F22</f>
+      <c r="B128" s="24">
+        <f t="shared" si="44"/>
         <v>16.292683411077782</v>
       </c>
       <c r="C128" s="2">
-        <f>($B$74-B128)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>-0.97083202902209276</v>
       </c>
       <c r="D128" s="2">
-        <f>D22</f>
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="E128" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C128, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.24902650373170745</v>
       </c>
       <c r="F128" s="2">
-        <f>$B$3*$B$10*E128/$B$79</f>
+        <f t="shared" si="48"/>
         <v>14.048463955569739</v>
       </c>
-      <c r="I128" s="40"/>
-      <c r="J128" s="40">
-        <f>POWER(D129-F129,2)/F129</f>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23">
+        <f t="shared" si="43"/>
         <v>0.1678224594870002</v>
       </c>
-      <c r="K128" s="40"/>
-      <c r="L128" s="40"/>
-      <c r="M128" s="40"/>
-      <c r="N128" s="40"/>
-      <c r="O128" s="40"/>
-      <c r="P128" s="40"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="23"/>
+      <c r="P128" s="23"/>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B129" s="41">
-        <f>F23</f>
+      <c r="B129" s="24">
+        <f t="shared" si="44"/>
         <v>20.345898576728288</v>
       </c>
       <c r="C129" s="2">
-        <f>($B$74-B129)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>-1.4512021390163923</v>
       </c>
       <c r="D129" s="2">
-        <f>D23</f>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="E129" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C129, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>0.13918763593294531</v>
       </c>
       <c r="F129" s="2">
-        <f>$B$3*$B$10*E129/$B$79</f>
+        <f t="shared" si="48"/>
         <v>7.8520657727725096</v>
       </c>
-      <c r="J129" s="40">
-        <f>POWER(D130-F130,2)/F130</f>
+      <c r="J129" s="23">
+        <f t="shared" si="43"/>
         <v>5.8589615516011246</v>
       </c>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
-      <c r="N129" s="40"/>
-      <c r="O129" s="40"/>
-      <c r="P129" s="40"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="23"/>
+      <c r="O129" s="23"/>
+      <c r="P129" s="23"/>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B130" s="41">
-        <f>F24</f>
+      <c r="B130" s="24">
+        <f t="shared" si="44"/>
         <v>22.372506159553541</v>
       </c>
       <c r="C130" s="2">
-        <f>($B$74-B130)/$B$79</f>
+        <f t="shared" si="45"/>
         <v>-1.6913871940135421</v>
       </c>
       <c r="D130" s="2">
-        <f>D24</f>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="E130" s="2">
-        <f>1/SQRT(2*PI())*EXP(-POWER(C130, 2)/2)</f>
+        <f t="shared" si="47"/>
         <v>9.5432713238655376E-2</v>
       </c>
       <c r="F130" s="2">
-        <f>$B$3*$B$10*E130/$B$79</f>
+        <f t="shared" si="48"/>
         <v>5.3836961609511196</v>
       </c>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-      <c r="N130" s="40"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="40"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="23"/>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="40"/>
-      <c r="L131" s="40"/>
-      <c r="M131" s="40"/>
-      <c r="N131" s="40"/>
-      <c r="O131" s="40"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="23"/>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="40"/>
-      <c r="N132" s="40"/>
-      <c r="O132" s="40"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="36"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
       <c r="G134">
         <v>0</v>
       </c>
@@ -21070,17 +21075,17 @@
       <c r="B135" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="34">
+      <c r="C135" s="55">
         <f>SUM(J122:J129)</f>
         <v>26.564936630104022</v>
       </c>
-      <c r="D135" s="36"/>
+      <c r="D135" s="57"/>
       <c r="F135">
-        <f>F123/$B$8</f>
+        <f t="shared" ref="F135:F142" si="49">F123/$B$8</f>
         <v>6.7931188520624602E-2</v>
       </c>
       <c r="G135">
-        <f>G134+F135</f>
+        <f t="shared" ref="G135:G142" si="50">G134+F135</f>
         <v>6.7931188520624602E-2</v>
       </c>
     </row>
@@ -21088,17 +21093,17 @@
       <c r="B136" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C136" s="34">
+      <c r="C136" s="55">
         <f>CHIINV(0.05,B11-1-C137)</f>
         <v>11.070497693516353</v>
       </c>
-      <c r="D136" s="36"/>
+      <c r="D136" s="57"/>
       <c r="F136">
-        <f>F124/$B$8</f>
+        <f t="shared" si="49"/>
         <v>0.12036587498334592</v>
       </c>
       <c r="G136">
-        <f>G135+F136</f>
+        <f t="shared" si="50"/>
         <v>0.18829706350397052</v>
       </c>
     </row>
@@ -21106,66 +21111,66 @@
       <c r="B137" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C137" s="34">
+      <c r="C137" s="55">
         <v>2</v>
       </c>
-      <c r="D137" s="36"/>
+      <c r="D137" s="57"/>
       <c r="F137">
-        <f>F125/$B$8</f>
+        <f t="shared" si="49"/>
         <v>0.16932525020789974</v>
       </c>
       <c r="G137">
-        <f>G136+F137</f>
+        <f t="shared" si="50"/>
         <v>0.35762231371187025</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C138" s="38"/>
-      <c r="D138" s="37"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
       <c r="F138">
-        <f>F126/$B$8</f>
+        <f t="shared" si="49"/>
         <v>0.18911425205597412</v>
       </c>
       <c r="G138">
-        <f>G137+F138</f>
+        <f t="shared" si="50"/>
         <v>0.54673656576784435</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F139">
-        <f>F127/$B$8</f>
+        <f t="shared" si="49"/>
         <v>0.1676914721885589</v>
       </c>
       <c r="G139">
-        <f>G138+F139</f>
+        <f t="shared" si="50"/>
         <v>0.71442803795640319</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F140">
-        <f>F128/$B$8</f>
+        <f t="shared" si="49"/>
         <v>0.11805431895436755</v>
       </c>
       <c r="G140">
-        <f>G139+F140</f>
+        <f t="shared" si="50"/>
         <v>0.83248235691077077</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
       <c r="F141">
-        <f>F129/$B$8</f>
+        <f t="shared" si="49"/>
         <v>6.5983745989684955E-2</v>
       </c>
       <c r="G141">
-        <f>G140+F141</f>
+        <f t="shared" si="50"/>
         <v>0.8984661029004557</v>
       </c>
     </row>
@@ -21173,34 +21178,29 @@
       <c r="B142" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C142" s="34">
+      <c r="C142" s="55">
         <f>ABS(C135-B11)/SQRT(2*B11)</f>
         <v>4.6412341575260054</v>
       </c>
-      <c r="D142" s="36"/>
+      <c r="D142" s="57"/>
       <c r="F142">
-        <f>F130/$B$8</f>
+        <f t="shared" si="49"/>
         <v>4.5241144209673276E-2</v>
       </c>
       <c r="G142">
-        <f>G141+F142</f>
+        <f t="shared" si="50"/>
         <v>0.94370724711012899</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C143" s="35"/>
-      <c r="D143" s="36"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="C142:D142"/>
     <mergeCell ref="B143:D143"/>
     <mergeCell ref="C136:D136"/>
     <mergeCell ref="B15:B16"/>
@@ -21212,6 +21212,11 @@
     <mergeCell ref="F99:F108"/>
     <mergeCell ref="B121:F121"/>
     <mergeCell ref="B134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="C142:D142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
